--- a/investment/record.xlsx
+++ b/investment/record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="损益" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -237,9 +237,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="7" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -550,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -590,7 +587,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4">
@@ -610,7 +607,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -619,7 +616,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -628,7 +625,7 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -637,7 +634,7 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4">
@@ -657,7 +654,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -666,7 +663,7 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="21"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -675,7 +672,7 @@
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="21"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -684,7 +681,7 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4">
@@ -706,7 +703,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="21"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -715,7 +712,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="21"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -724,7 +721,7 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="21"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -748,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -783,7 +780,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="16">
@@ -804,7 +801,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="22"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="16">
         <v>42045</v>
       </c>
@@ -823,7 +820,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="16">
         <v>42051</v>
       </c>
@@ -842,7 +839,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="22"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="16">
         <v>42063</v>
       </c>
@@ -861,99 +858,134 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="16">
+        <v>42068</v>
+      </c>
+      <c r="C6" s="17">
+        <v>7000</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <f>F5+C6-D6+E6</f>
+        <v>198462.69999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="22"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="22"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="22"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="22"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="16">
         <v>41639</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>13684</v>
       </c>
-      <c r="D11" s="20">
-        <v>0</v>
-      </c>
-      <c r="E11" s="20">
-        <v>0</v>
-      </c>
-      <c r="F11" s="20">
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19">
         <v>13684</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="22"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="16">
         <v>41992</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>3071.25</v>
       </c>
-      <c r="D12" s="20">
-        <v>0</v>
-      </c>
-      <c r="E12" s="20">
-        <v>0</v>
-      </c>
-      <c r="F12" s="20">
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
         <f>F11+C12-D12+E12</f>
         <v>16755.25</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="16">
         <v>42004</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>14393.08</v>
       </c>
-      <c r="D13" s="20">
-        <v>0</v>
-      </c>
-      <c r="E13" s="20">
-        <v>0</v>
-      </c>
-      <c r="F13" s="20">
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
         <f>F12+C13-D13+E13</f>
         <v>31148.33</v>
       </c>

--- a/investment/record.xlsx
+++ b/investment/record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="损益" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,102 @@
   </si>
   <si>
     <t>资产收益率（ROE）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH-601168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部矿业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ-000671</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ-000629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攀钢钒钛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ-300217</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方电热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH-610668</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ-000777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中核科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +188,7 @@
     <numFmt numFmtId="177" formatCode="&quot;US$&quot;#,##0.00;\-&quot;US$&quot;#,##0.00"/>
     <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +236,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -184,7 +296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,16 +352,49 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,7 +732,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4">
@@ -607,7 +752,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="20"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -616,7 +761,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -625,7 +770,7 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -634,7 +779,7 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4">
@@ -654,7 +799,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="20"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -663,7 +808,7 @@
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="20"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -672,7 +817,7 @@
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="20"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -681,7 +826,7 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4">
@@ -703,7 +848,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="20"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -712,7 +857,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -721,7 +866,7 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="20"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -745,7 +890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -780,7 +925,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="16">
@@ -801,7 +946,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="21"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="16">
         <v>42045</v>
       </c>
@@ -820,7 +965,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="21"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="16">
         <v>42051</v>
       </c>
@@ -839,7 +984,7 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="21"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="16">
         <v>42063</v>
       </c>
@@ -858,7 +1003,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="21"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="16">
         <v>42068</v>
       </c>
@@ -877,8 +1022,8 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="21"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="17">
         <v>0</v>
       </c>
@@ -888,11 +1033,11 @@
       <c r="E7" s="17">
         <v>0</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="21"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="17">
         <v>0</v>
       </c>
@@ -902,11 +1047,11 @@
       <c r="E8" s="17">
         <v>0</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="21"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="17">
         <v>0</v>
       </c>
@@ -916,11 +1061,11 @@
       <c r="E9" s="17">
         <v>0</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="21"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="17">
         <v>0</v>
       </c>
@@ -930,62 +1075,62 @@
       <c r="E10" s="17">
         <v>0</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="16">
         <v>41639</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="20">
         <v>13684</v>
       </c>
-      <c r="D11" s="19">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0</v>
-      </c>
-      <c r="F11" s="19">
+      <c r="D11" s="20">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20">
         <v>13684</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="21"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="16">
         <v>41992</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="20">
         <v>3071.25</v>
       </c>
-      <c r="D12" s="19">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19">
-        <v>0</v>
-      </c>
-      <c r="F12" s="19">
+      <c r="D12" s="20">
+        <v>0</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0</v>
+      </c>
+      <c r="F12" s="20">
         <f>F11+C12-D12+E12</f>
         <v>16755.25</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="21"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="16">
         <v>42004</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="20">
         <v>14393.08</v>
       </c>
-      <c r="D13" s="19">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19">
-        <v>0</v>
-      </c>
-      <c r="F13" s="19">
+      <c r="D13" s="20">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
         <f>F12+C13-D13+E13</f>
         <v>31148.33</v>
       </c>
@@ -1073,15 +1218,459 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="11.625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9" style="14"/>
+    <col min="3" max="3" width="10.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="9.625" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="16">
+        <v>41981</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="18">
+        <v>9.9</v>
+      </c>
+      <c r="F2" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="26">
+        <v>41985</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="30">
+        <v>10.37</v>
+      </c>
+      <c r="F3" s="30">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="11">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="H3" s="11">
+        <f>G3/5</f>
+        <v>9.0800000000000013E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="16">
+        <v>42003</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="18">
+        <v>7.11</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1600</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="26">
+        <v>42011</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="30">
+        <v>7.14</v>
+      </c>
+      <c r="F5" s="30">
+        <v>1600</v>
+      </c>
+      <c r="G5" s="11">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="H5" s="11">
+        <f>G5/9</f>
+        <v>2.4444444444444448E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="16">
+        <v>41992</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="18">
+        <v>12.52</v>
+      </c>
+      <c r="F6" s="18">
+        <v>800</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="26">
+        <v>42003</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="27">
+        <v>13.9</v>
+      </c>
+      <c r="F7" s="27">
+        <v>800</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.108</v>
+      </c>
+      <c r="H7" s="11">
+        <f>G7/12</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="16">
+        <v>41985</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="18">
+        <v>3.47</v>
+      </c>
+      <c r="F8" s="18">
+        <v>3000</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="28">
+        <v>41992</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="29">
+        <v>3.47</v>
+      </c>
+      <c r="F9" s="29">
+        <v>3000</v>
+      </c>
+      <c r="G9" s="8">
+        <v>-2E-3</v>
+      </c>
+      <c r="H9" s="8">
+        <f>G9/8</f>
+        <v>-2.5000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="16">
+        <v>40695</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="18">
+        <v>16.34</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1080</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="26">
+        <v>41954</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="30">
+        <v>27.55</v>
+      </c>
+      <c r="F11" s="30">
+        <v>780</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="31">
+        <v>41970</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="30">
+        <v>30.2</v>
+      </c>
+      <c r="F12" s="30">
+        <v>300</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.72070000000000001</v>
+      </c>
+      <c r="H12" s="32">
+        <f>G12/1273</f>
+        <v>5.6614296936370774E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="16">
+        <v>42011</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="18">
+        <v>10.11</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1100</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="H27" s="24"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="H28" s="24"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="H29" s="24"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="H30" s="24"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="24"/>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" s="24"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/investment/record.xlsx
+++ b/investment/record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="8220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="损益" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>中核科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老婆2月工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我2014年终奖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -296,7 +308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -304,9 +316,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -709,170 +718,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>42005</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>160000</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>156424.13</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7">
         <f>(D2-C2)/C2</f>
         <v>-2.2349187499999972E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="22"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="22"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="22"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>42005</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>31148.33</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>31678.66</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="11">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="10">
         <f t="shared" ref="G6:G10" si="0">(D6-C6)/C6</f>
         <v>1.7025952916255801E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="22"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="11"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="22"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="11"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="22"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="11"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>42005</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <f>C6*6.2743+C2</f>
         <v>355433.96691900003</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <f>D6*6.2743+D2</f>
         <v>355185.54643800005</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>-6.9892161166631495E-4</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="22"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="22"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="22"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -888,10 +897,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -901,309 +910,329 @@
     <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
     <col min="4" max="5" width="13.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="23" t="s">
+      <c r="G1" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>42005</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>160000</v>
       </c>
-      <c r="D2" s="17">
-        <v>0</v>
-      </c>
-      <c r="E2" s="17">
-        <v>0</v>
-      </c>
-      <c r="F2" s="17">
+      <c r="D2" s="16">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16">
+        <v>0</v>
+      </c>
+      <c r="F2" s="16">
         <f>C2-D2+E2</f>
         <v>160000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="23"/>
-      <c r="B3" s="16">
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="22"/>
+      <c r="B3" s="15">
         <v>42045</v>
       </c>
-      <c r="C3" s="17">
-        <v>0</v>
-      </c>
-      <c r="D3" s="17">
-        <v>0</v>
-      </c>
-      <c r="E3" s="17">
+      <c r="C3" s="16">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
         <v>403.09</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <f>F2+C3-D3+E3</f>
         <v>160403.09</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="23"/>
-      <c r="B4" s="16">
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="22"/>
+      <c r="B4" s="15">
         <v>42051</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>31000</v>
       </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>0</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="D4" s="16">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16">
         <f>F3+C4-D4+E4</f>
         <v>191403.09</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="23"/>
-      <c r="B5" s="16">
+      <c r="G4" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="22"/>
+      <c r="B5" s="15">
         <v>42063</v>
       </c>
-      <c r="C5" s="17">
-        <v>0</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
         <v>59.61</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <f>F4+C5-D5+E5</f>
         <v>191462.69999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="23"/>
-      <c r="B6" s="16">
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="22"/>
+      <c r="B6" s="15">
         <v>42068</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>7000</v>
       </c>
-      <c r="D6" s="17">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
         <f>F5+C6-D6+E6</f>
         <v>198462.69999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="23"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="17">
-        <v>0</v>
-      </c>
-      <c r="D7" s="17">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="23"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="17">
-        <v>0</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="23"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="17">
-        <v>0</v>
-      </c>
-      <c r="D9" s="17">
-        <v>0</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0</v>
-      </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="23"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="17">
-        <v>0</v>
-      </c>
-      <c r="D10" s="17">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
-        <v>0</v>
-      </c>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="23" t="s">
+      <c r="G6" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="22"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="22"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="22"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="22"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>41639</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>13684</v>
       </c>
-      <c r="D11" s="20">
-        <v>0</v>
-      </c>
-      <c r="E11" s="20">
-        <v>0</v>
-      </c>
-      <c r="F11" s="20">
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19">
         <v>13684</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="23"/>
-      <c r="B12" s="16">
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="22"/>
+      <c r="B12" s="15">
         <v>41992</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <v>3071.25</v>
       </c>
-      <c r="D12" s="20">
-        <v>0</v>
-      </c>
-      <c r="E12" s="20">
-        <v>0</v>
-      </c>
-      <c r="F12" s="20">
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
         <f>F11+C12-D12+E12</f>
         <v>16755.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="23"/>
-      <c r="B13" s="16">
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="22"/>
+      <c r="B13" s="15">
         <v>42004</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="19">
         <v>14393.08</v>
       </c>
-      <c r="D13" s="20">
-        <v>0</v>
-      </c>
-      <c r="E13" s="20">
-        <v>0</v>
-      </c>
-      <c r="F13" s="20">
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0</v>
+      </c>
+      <c r="F13" s="19">
         <f>F12+C13-D13+E13</f>
         <v>31148.33</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1220,453 +1249,453 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9" style="14"/>
-    <col min="3" max="3" width="10.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="9.625" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="11.625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9" style="13"/>
+    <col min="3" max="3" width="10.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="13"/>
+    <col min="8" max="8" width="9.625" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>41981</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>9.9</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <v>1000</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="25"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="26">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="25">
         <v>41985</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="29">
         <v>10.37</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <v>1000</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <f>G3/5</f>
         <v>9.0800000000000013E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>42003</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>7.11</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>1600</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="25"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="24"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="26">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="25">
         <v>42011</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <v>7.14</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <v>1600</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <f>G5/9</f>
         <v>2.4444444444444448E-4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>41992</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>12.52</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <v>800</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="25"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="26">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="25">
         <v>42003</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <v>13.9</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="26">
         <v>800</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>0.108</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <f>G7/12</f>
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>41985</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>3.47</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <v>3000</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="25"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="28">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="27">
         <v>41992</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <v>3.47</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="28">
         <v>3000</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>-2E-3</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <f>G9/8</f>
         <v>-2.5000000000000001E-4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>40695</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <v>16.34</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <v>1080</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="25"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="26">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="25">
         <v>41954</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="29">
         <v>27.55</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="29">
         <v>780</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="32"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="31">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="30">
         <v>41970</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="29">
         <v>30.2</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="29">
         <v>300</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>0.72070000000000001</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="31">
         <f>G12/1273</f>
         <v>5.6614296936370774E-4</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>42011</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>10.11</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="17">
         <v>1100</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="25"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="25"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="25"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="25"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="25"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="25"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="25"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="25"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="25"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="25"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="25"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="24"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="25"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="24"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="H25" s="24"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="H26" s="24"/>
+      <c r="H26" s="23"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="H27" s="24"/>
+      <c r="H27" s="23"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="H28" s="24"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="H29" s="24"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="H30" s="24"/>
+      <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="H31" s="24"/>
+      <c r="H31" s="23"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="H32" s="24"/>
+      <c r="H32" s="23"/>
     </row>
     <row r="33" spans="8:8">
-      <c r="H33" s="24"/>
+      <c r="H33" s="23"/>
     </row>
     <row r="34" spans="8:8">
-      <c r="H34" s="24"/>
+      <c r="H34" s="23"/>
     </row>
     <row r="35" spans="8:8">
-      <c r="H35" s="24"/>
+      <c r="H35" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/investment/record.xlsx
+++ b/investment/record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="8220" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="8220" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="损益" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,14 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>收益率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日收益率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SZ-000671</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,6 +170,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>老婆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>资金来源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,6 +183,54 @@
   </si>
   <si>
     <t>我2014年终奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ-002155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辰州矿业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH-600773</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏城投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日均收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单股收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到目标价 24，止盈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清仓锁定盈利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持股账号合并，从广发清空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,8 +322,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -302,13 +364,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,9 +477,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -399,10 +495,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -899,7 +1034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -934,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -998,7 +1133,7 @@
         <v>191403.09</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1040,7 +1175,7 @@
         <v>198462.69999999998</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1247,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1258,12 +1393,15 @@
     <col min="1" max="1" width="11.625" style="13" customWidth="1"/>
     <col min="2" max="2" width="9" style="13"/>
     <col min="3" max="3" width="10.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="13"/>
+    <col min="4" max="6" width="9" style="13"/>
+    <col min="7" max="7" width="10.375" style="13" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="13"/>
+    <col min="9" max="9" width="12.375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="30.125" style="13" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
@@ -1283,421 +1421,917 @@
         <v>20</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="15">
+        <v>41981</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="16">
+        <v>9.9</v>
+      </c>
+      <c r="F3" s="17">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="24">
+        <v>41985</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="32">
+        <v>10.37</v>
+      </c>
+      <c r="F4" s="28">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="10">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="H4" s="10">
+        <f>G4/5</f>
+        <v>9.0800000000000013E-3</v>
+      </c>
+      <c r="I4" s="10">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="15">
+        <v>42003</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="16">
+        <v>7.11</v>
+      </c>
+      <c r="F5" s="17">
+        <v>1600</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="24">
+        <v>42011</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="32">
+        <v>7.14</v>
+      </c>
+      <c r="F6" s="28">
+        <v>1600</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="H6" s="10">
+        <f>G6/9</f>
+        <v>2.4444444444444448E-4</v>
+      </c>
+      <c r="I6" s="10">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="B7" s="17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="15">
-        <v>41981</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="C7" s="15">
+        <v>41992</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="17">
-        <v>9.9</v>
-      </c>
-      <c r="F2" s="17">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="25">
+      <c r="E7" s="16">
+        <v>12.52</v>
+      </c>
+      <c r="F7" s="17">
+        <v>800</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="24">
+        <v>42003</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="33">
+        <v>13.9</v>
+      </c>
+      <c r="F8" s="25">
+        <v>800</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.108</v>
+      </c>
+      <c r="H8" s="10">
+        <f>G8/12</f>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.108</v>
+      </c>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="15">
         <v>41985</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="29">
-        <v>10.37</v>
-      </c>
-      <c r="F3" s="29">
-        <v>1000</v>
-      </c>
-      <c r="G3" s="10">
-        <v>4.5400000000000003E-2</v>
-      </c>
-      <c r="H3" s="10">
-        <f>G3/5</f>
-        <v>9.0800000000000013E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="15">
-        <v>42003</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="17">
-        <v>7.11</v>
-      </c>
-      <c r="F4" s="17">
-        <v>1600</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="24"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="25">
+      <c r="E9" s="16">
+        <v>3.47</v>
+      </c>
+      <c r="F9" s="17">
+        <v>3000</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="26">
+        <v>41992</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="34">
+        <v>3.47</v>
+      </c>
+      <c r="F10" s="27">
+        <v>3000</v>
+      </c>
+      <c r="G10" s="7">
+        <v>-2E-3</v>
+      </c>
+      <c r="H10" s="7">
+        <f>G10/8</f>
+        <v>-2.5000000000000001E-4</v>
+      </c>
+      <c r="I10" s="7">
+        <v>-2E-3</v>
+      </c>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="15">
         <v>42011</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="29">
-        <v>7.14</v>
-      </c>
-      <c r="F5" s="29">
-        <v>1600</v>
-      </c>
-      <c r="G5" s="10">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="H5" s="10">
-        <f>G5/9</f>
-        <v>2.4444444444444448E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="15">
-        <v>41992</v>
-      </c>
-      <c r="D6" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="17">
-        <v>12.52</v>
-      </c>
-      <c r="F6" s="17">
-        <v>800</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="25">
-        <v>42003</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="26">
-        <v>13.9</v>
-      </c>
-      <c r="F7" s="26">
-        <v>800</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.108</v>
-      </c>
-      <c r="H7" s="10">
-        <f>G7/12</f>
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="15">
-        <v>41985</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="17">
-        <v>3.47</v>
-      </c>
-      <c r="F8" s="17">
-        <v>3000</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="24"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="27">
-        <v>41992</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="28">
-        <v>3.47</v>
-      </c>
-      <c r="F9" s="28">
-        <v>3000</v>
-      </c>
-      <c r="G9" s="7">
-        <v>-2E-3</v>
-      </c>
-      <c r="H9" s="7">
-        <f>G9/8</f>
-        <v>-2.5000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="15">
-        <v>40695</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="17">
-        <v>16.34</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1080</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="24"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="25">
-        <v>41954</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="29">
-        <v>27.55</v>
-      </c>
-      <c r="F11" s="29">
-        <v>780</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="E11" s="16">
+        <v>10.11</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1100</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
-      <c r="C12" s="30">
-        <v>41970</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="29">
-        <v>30.2</v>
-      </c>
-      <c r="F12" s="29">
-        <v>300</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0.72070000000000001</v>
-      </c>
-      <c r="H12" s="31">
-        <f>G12/1273</f>
-        <v>5.6614296936370774E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="15">
-        <v>42011</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A13" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="15">
+        <v>40695</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="17">
-        <v>10.11</v>
-      </c>
-      <c r="F13" s="17">
-        <v>1100</v>
-      </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="E14" s="16">
+        <v>16.34</v>
+      </c>
+      <c r="F14" s="17">
+        <v>1080</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="C15" s="15">
+        <v>41954</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="4">
+        <v>27.55</v>
+      </c>
+      <c r="F15" s="6">
+        <v>780</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="H15" s="31">
+        <f>G15/1258</f>
+        <v>5.4531001589825127E-4</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="C16" s="30">
+        <v>41970</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="32">
+        <v>30.2</v>
+      </c>
+      <c r="F16" s="28">
+        <v>300</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="H16" s="31">
+        <f>G16/1273</f>
+        <v>6.6614296936370779E-4</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0.72070000000000001</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="15">
+        <v>40524</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="16">
+        <v>19.68</v>
+      </c>
+      <c r="F18" s="17">
+        <v>1820</v>
+      </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18" s="23"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="C19" s="15">
+        <v>41858</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="16">
+        <v>9.08</v>
+      </c>
+      <c r="F19" s="17">
+        <v>300</v>
+      </c>
       <c r="G19" s="17"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="H19" s="23"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="C20" s="15">
+        <v>41862</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="16">
+        <v>9.18</v>
+      </c>
+      <c r="F20" s="17">
+        <v>200</v>
+      </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20" s="23"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="C21" s="15">
+        <v>41893</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="16">
+        <v>8.6</v>
+      </c>
+      <c r="F21" s="17">
+        <v>300</v>
+      </c>
       <c r="G21" s="17"/>
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="H21" s="23"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="C22" s="15">
+        <v>41976</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="16">
+        <v>10.63</v>
+      </c>
+      <c r="F22" s="17">
+        <v>2200</v>
+      </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="H22" s="23"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="C23" s="15">
+        <v>41988</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="16">
+        <v>9.98</v>
+      </c>
+      <c r="F23" s="17">
+        <v>200</v>
+      </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="H23" s="23"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="C24" s="15">
+        <v>41988</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="16">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="F24" s="17">
+        <v>600</v>
+      </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="H25" s="23"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="H26" s="23"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="H27" s="23"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="H28" s="23"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="H24" s="23"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="15">
+        <v>41995</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="16">
+        <v>10.4</v>
+      </c>
+      <c r="F25" s="17">
+        <v>1820</v>
+      </c>
+      <c r="G25" s="41">
+        <v>-0.47149999999999997</v>
+      </c>
+      <c r="H25" s="42">
+        <f>G25/1463</f>
+        <v>-3.22282980177717E-4</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="15">
+        <v>41995</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="16">
+        <v>10.4</v>
+      </c>
+      <c r="F26" s="17">
+        <v>300</v>
+      </c>
+      <c r="G26" s="43">
+        <f>(E26-E19)/E19</f>
+        <v>0.14537444933920707</v>
+      </c>
+      <c r="H26" s="31">
+        <f>G26/138</f>
+        <v>1.0534380386899064E-3</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="39"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="15">
+        <v>41995</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="16">
+        <v>10.4</v>
+      </c>
+      <c r="F27" s="17">
+        <v>200</v>
+      </c>
+      <c r="G27" s="43">
+        <f>(E27-E20)/E20</f>
+        <v>0.13289760348583884</v>
+      </c>
+      <c r="H27" s="31">
+        <f>G27/134</f>
+        <v>9.9177316034208102E-4</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="J27" s="39"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="15">
+        <v>41995</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="16">
+        <v>10.4</v>
+      </c>
+      <c r="F28" s="17">
+        <v>300</v>
+      </c>
+      <c r="G28" s="43">
+        <f>(E28-E21)/E21</f>
+        <v>0.20930232558139544</v>
+      </c>
+      <c r="H28" s="31">
+        <f>G28/103</f>
+        <v>2.0320614134116061E-3</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="J28" s="40"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="15">
+        <v>42039</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="16">
+        <v>10.75</v>
+      </c>
+      <c r="F29" s="17">
+        <v>2000</v>
+      </c>
+      <c r="G29" s="41"/>
       <c r="H29" s="23"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="15">
+        <v>42051</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="16">
+        <v>10.51</v>
+      </c>
+      <c r="F30" s="17">
+        <v>2000</v>
+      </c>
+      <c r="G30" s="41"/>
       <c r="H30" s="23"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
       <c r="H31" s="23"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="15">
+        <v>41971</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="16">
+        <v>12.47</v>
+      </c>
+      <c r="F32" s="17">
+        <v>2000</v>
+      </c>
+      <c r="G32" s="17"/>
       <c r="H32" s="23"/>
-    </row>
-    <row r="33" spans="8:8">
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="15">
+        <v>41995</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="16">
+        <v>12.99</v>
+      </c>
+      <c r="F33" s="17">
+        <v>1200</v>
+      </c>
+      <c r="G33" s="17"/>
       <c r="H33" s="23"/>
-    </row>
-    <row r="34" spans="8:8">
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="15">
+        <v>41997</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="16">
+        <v>12.02</v>
+      </c>
+      <c r="F34" s="17">
+        <v>1800</v>
+      </c>
+      <c r="G34" s="17"/>
       <c r="H34" s="23"/>
-    </row>
-    <row r="35" spans="8:8">
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
       <c r="H35" s="23"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A13:J13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/investment/record.xlsx
+++ b/investment/record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,6 +231,22 @@
   </si>
   <si>
     <t>持股账号合并，从广发清空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票转移回补，因中间停牌一周，买回晚了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加仓潜伏资源板块，等待周期反转到来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题投资买入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加仓买入补足仓位，国企改革、锂电、西藏等概念题材</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -519,6 +535,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -539,6 +558,9 @@
     </xf>
     <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1384,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1397,7 +1419,7 @@
     <col min="7" max="7" width="10.375" style="13" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="13" customWidth="1"/>
     <col min="9" max="9" width="12.375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="30.125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="36" style="37" customWidth="1"/>
     <col min="11" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
@@ -1469,7 +1491,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="23"/>
       <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="J3" s="38"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="17"/>
@@ -1496,7 +1518,7 @@
       <c r="I4" s="10">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="J4" s="17"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17" t="s">
@@ -1520,7 +1542,7 @@
       <c r="G5" s="17"/>
       <c r="H5" s="23"/>
       <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17"/>
@@ -1547,7 +1569,7 @@
       <c r="I6" s="10">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="J6" s="17"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="17" t="s">
@@ -1571,7 +1593,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="23"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="17"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="17"/>
@@ -1598,7 +1620,7 @@
       <c r="I8" s="10">
         <v>0.108</v>
       </c>
-      <c r="J8" s="17"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="17" t="s">
@@ -1622,7 +1644,7 @@
       <c r="G9" s="17"/>
       <c r="H9" s="23"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="17"/>
@@ -1649,7 +1671,7 @@
       <c r="I10" s="7">
         <v>-2E-3</v>
       </c>
-      <c r="J10" s="17"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="17" t="s">
@@ -1673,7 +1695,7 @@
       <c r="G11" s="17"/>
       <c r="H11" s="23"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="17"/>
@@ -1685,7 +1707,7 @@
       <c r="G12" s="17"/>
       <c r="H12" s="23"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="J12" s="38"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="36" t="s">
@@ -1723,7 +1745,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="23"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="17"/>
@@ -1748,7 +1770,7 @@
         <v>5.4531001589825127E-4</v>
       </c>
       <c r="I15" s="17"/>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="38" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1777,7 +1799,7 @@
       <c r="I16" s="10">
         <v>0.72070000000000001</v>
       </c>
-      <c r="J16" s="37" t="s">
+      <c r="J16" s="38" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1791,7 +1813,7 @@
       <c r="G17" s="17"/>
       <c r="H17" s="23"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="J17" s="38"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="17" t="s">
@@ -1815,7 +1837,7 @@
       <c r="G18" s="17"/>
       <c r="H18" s="23"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="J18" s="38"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="17"/>
@@ -1835,7 +1857,7 @@
       <c r="G19" s="17"/>
       <c r="H19" s="23"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="J19" s="38"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="17"/>
@@ -1855,7 +1877,7 @@
       <c r="G20" s="17"/>
       <c r="H20" s="23"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="17"/>
@@ -1875,7 +1897,7 @@
       <c r="G21" s="17"/>
       <c r="H21" s="23"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="J21" s="38"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="17"/>
@@ -1895,7 +1917,7 @@
       <c r="G22" s="17"/>
       <c r="H22" s="23"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="J22" s="38"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="17"/>
@@ -1915,7 +1937,7 @@
       <c r="G23" s="17"/>
       <c r="H23" s="23"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="J23" s="38"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="17"/>
@@ -1935,7 +1957,7 @@
       <c r="G24" s="17"/>
       <c r="H24" s="23"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="J24" s="38"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="17"/>
@@ -1952,15 +1974,15 @@
       <c r="F25" s="17">
         <v>1820</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="42">
         <v>-0.47149999999999997</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="43">
         <f>G25/1463</f>
         <v>-3.22282980177717E-4</v>
       </c>
       <c r="I25" s="17"/>
-      <c r="J25" s="38" t="s">
+      <c r="J25" s="39" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1979,7 +2001,7 @@
       <c r="F26" s="17">
         <v>300</v>
       </c>
-      <c r="G26" s="43">
+      <c r="G26" s="44">
         <f>(E26-E19)/E19</f>
         <v>0.14537444933920707</v>
       </c>
@@ -1988,7 +2010,7 @@
         <v>1.0534380386899064E-3</v>
       </c>
       <c r="I26" s="17"/>
-      <c r="J26" s="39"/>
+      <c r="J26" s="40"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="17"/>
@@ -2005,7 +2027,7 @@
       <c r="F27" s="17">
         <v>200</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="44">
         <f>(E27-E20)/E20</f>
         <v>0.13289760348583884</v>
       </c>
@@ -2014,7 +2036,7 @@
         <v>9.9177316034208102E-4</v>
       </c>
       <c r="I27" s="17"/>
-      <c r="J27" s="39"/>
+      <c r="J27" s="40"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="17"/>
@@ -2031,7 +2053,7 @@
       <c r="F28" s="17">
         <v>300</v>
       </c>
-      <c r="G28" s="43">
+      <c r="G28" s="44">
         <f>(E28-E21)/E21</f>
         <v>0.20930232558139544</v>
       </c>
@@ -2040,7 +2062,7 @@
         <v>2.0320614134116061E-3</v>
       </c>
       <c r="I28" s="17"/>
-      <c r="J28" s="40"/>
+      <c r="J28" s="41"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="17"/>
@@ -2057,10 +2079,12 @@
       <c r="F29" s="17">
         <v>2000</v>
       </c>
-      <c r="G29" s="41"/>
+      <c r="G29" s="42"/>
       <c r="H29" s="23"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
+      <c r="J29" s="38" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="17"/>
@@ -2077,10 +2101,12 @@
       <c r="F30" s="17">
         <v>2000</v>
       </c>
-      <c r="G30" s="41"/>
+      <c r="G30" s="42"/>
       <c r="H30" s="23"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="J30" s="38" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="17"/>
@@ -2092,7 +2118,7 @@
       <c r="G31" s="17"/>
       <c r="H31" s="23"/>
       <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="17" t="s">
@@ -2116,7 +2142,9 @@
       <c r="G32" s="17"/>
       <c r="H32" s="23"/>
       <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="J32" s="38" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="17"/>
@@ -2136,7 +2164,9 @@
       <c r="G33" s="17"/>
       <c r="H33" s="23"/>
       <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="J33" s="45" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="17"/>
@@ -2156,7 +2186,7 @@
       <c r="G34" s="17"/>
       <c r="H34" s="23"/>
       <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+      <c r="J34" s="41"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="17"/>
@@ -2168,7 +2198,7 @@
       <c r="G35" s="17"/>
       <c r="H35" s="23"/>
       <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
+      <c r="J35" s="38"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="17"/>
@@ -2180,7 +2210,7 @@
       <c r="G36" s="17"/>
       <c r="H36" s="23"/>
       <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
+      <c r="J36" s="38"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="17"/>
@@ -2192,7 +2222,7 @@
       <c r="G37" s="17"/>
       <c r="H37" s="23"/>
       <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
+      <c r="J37" s="38"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="17"/>
@@ -2204,7 +2234,7 @@
       <c r="G38" s="17"/>
       <c r="H38" s="23"/>
       <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
+      <c r="J38" s="38"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="17"/>
@@ -2216,7 +2246,7 @@
       <c r="G39" s="17"/>
       <c r="H39" s="23"/>
       <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
+      <c r="J39" s="38"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="17"/>
@@ -2228,7 +2258,7 @@
       <c r="G40" s="17"/>
       <c r="H40" s="23"/>
       <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
+      <c r="J40" s="38"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="17"/>
@@ -2240,7 +2270,7 @@
       <c r="G41" s="17"/>
       <c r="H41" s="23"/>
       <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
+      <c r="J41" s="38"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="17"/>
@@ -2252,7 +2282,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
+      <c r="J42" s="38"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="17"/>
@@ -2264,7 +2294,7 @@
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
+      <c r="J43" s="38"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="17"/>
@@ -2276,7 +2306,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
+      <c r="J44" s="38"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="17"/>
@@ -2288,7 +2318,7 @@
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
+      <c r="J45" s="38"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="17"/>
@@ -2300,7 +2330,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
+      <c r="J46" s="38"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="17"/>
@@ -2312,7 +2342,7 @@
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
+      <c r="J47" s="38"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="17"/>
@@ -2324,11 +2354,12 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
+      <c r="J48" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="J25:J28"/>
+    <mergeCell ref="J33:J34"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A13:J13"/>
   </mergeCells>

--- a/investment/record.xlsx
+++ b/investment/record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="8220" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="损益" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,175 +78,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH-601168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部矿业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ-000671</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ-000629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攀钢钒钛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ-300217</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方电热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH-610668</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ-000777</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中核科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老婆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老婆2月工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我2014年终奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ-002155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辰州矿业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SH-600773</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏城投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日均收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单股收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到目标价 24，止盈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清仓锁定盈利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持股账号合并，从广发清空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票转移回补，因中间停牌一周，买回晚了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加仓潜伏资源板块，等待周期反转到来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题投资买入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加仓买入补足仓位，国企改革、锂电、西藏等概念题材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>资产收益率（ROE）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH-601168</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西部矿业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ-000671</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ-000629</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攀钢钒钛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ-300217</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东方电热</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH-610668</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ-000777</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中核科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老婆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老婆2月工资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我2014年终奖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SZ-002155</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辰州矿业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH-600773</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西藏城投</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日均收益率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易收益率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单股收益率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>达到目标价 24，止盈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清仓锁定盈利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持股账号合并，从广发清空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>股票转移回补，因中间停牌一周，买回晚了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加仓潜伏资源板块，等待周期反转到来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主题投资买入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加仓买入补足仓位，国企改革、锂电、西藏等概念题材</t>
+    <t>打新融资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,11 +258,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="&quot;US$&quot;#,##0.00_);[Red]\(&quot;US$&quot;#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="&quot;US$&quot;#,##0.00;\-&quot;US$&quot;#,##0.00"/>
     <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -423,7 +428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -487,47 +492,77 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -535,32 +570,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,7 +870,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -893,12 +904,12 @@
       <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>15</v>
+      <c r="G1" s="21" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3">
@@ -918,7 +929,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="21"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -927,7 +938,7 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="21"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -936,7 +947,7 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="21"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -945,7 +956,7 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="39" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3">
@@ -965,7 +976,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="21"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -974,7 +985,7 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="21"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -983,7 +994,7 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="21"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -992,7 +1003,7 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3">
@@ -1014,7 +1025,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="21"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1023,7 +1034,7 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="21"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1032,7 +1043,7 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="21"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1056,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1091,14 +1102,14 @@
         <v>1</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="47">
         <v>42005</v>
       </c>
       <c r="C2" s="16">
@@ -1117,8 +1128,8 @@
       <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="22"/>
-      <c r="B3" s="15">
+      <c r="A3" s="40"/>
+      <c r="B3" s="47">
         <v>42045</v>
       </c>
       <c r="C3" s="16">
@@ -1137,8 +1148,8 @@
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="22"/>
-      <c r="B4" s="15">
+      <c r="A4" s="40"/>
+      <c r="B4" s="47">
         <v>42051</v>
       </c>
       <c r="C4" s="16">
@@ -1154,13 +1165,13 @@
         <f>F3+C4-D4+E4</f>
         <v>191403.09</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>41</v>
+      <c r="G4" s="35" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="22"/>
-      <c r="B5" s="15">
+      <c r="A5" s="40"/>
+      <c r="B5" s="47">
         <v>42063</v>
       </c>
       <c r="C5" s="16">
@@ -1179,8 +1190,8 @@
       <c r="G5" s="18"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="22"/>
-      <c r="B6" s="15">
+      <c r="A6" s="40"/>
+      <c r="B6" s="47">
         <v>42068</v>
       </c>
       <c r="C6" s="16">
@@ -1196,15 +1207,17 @@
         <f>F5+C6-D6+E6</f>
         <v>198462.69999999998</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>40</v>
+      <c r="G6" s="35" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="22"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="47">
+        <v>42074</v>
+      </c>
       <c r="C7" s="16">
-        <v>0</v>
+        <v>364000</v>
       </c>
       <c r="D7" s="16">
         <v>0</v>
@@ -1212,12 +1225,17 @@
       <c r="E7" s="16">
         <v>0</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="F7" s="16">
+        <f>F6+C7-D7+E7</f>
+        <v>562462.69999999995</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="22"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="16">
         <v>0</v>
       </c>
@@ -1231,8 +1249,8 @@
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="22"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="16">
         <v>0</v>
       </c>
@@ -1246,8 +1264,8 @@
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="22"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="16">
         <v>0</v>
       </c>
@@ -1261,10 +1279,10 @@
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="47">
         <v>41639</v>
       </c>
       <c r="C11" s="19">
@@ -1282,8 +1300,8 @@
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="22"/>
-      <c r="B12" s="15">
+      <c r="A12" s="40"/>
+      <c r="B12" s="47">
         <v>41992</v>
       </c>
       <c r="C12" s="19">
@@ -1302,8 +1320,8 @@
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="22"/>
-      <c r="B13" s="15">
+      <c r="A13" s="40"/>
+      <c r="B13" s="47">
         <v>42004</v>
       </c>
       <c r="C13" s="19">
@@ -1406,7 +1424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
@@ -1419,68 +1437,68 @@
     <col min="7" max="7" width="10.375" style="13" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="13" customWidth="1"/>
     <col min="9" max="9" width="12.375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="36" style="37" customWidth="1"/>
+    <col min="10" max="10" width="36" style="34" customWidth="1"/>
     <col min="11" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>20</v>
-      </c>
       <c r="G1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="20" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>32</v>
       </c>
       <c r="C3" s="15">
         <v>41981</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="16">
         <v>9.9</v>
@@ -1489,23 +1507,23 @@
         <v>1000</v>
       </c>
       <c r="G3" s="17"/>
-      <c r="H3" s="23"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="17"/>
-      <c r="J3" s="38"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <v>41985</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="32">
+      <c r="D4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="31">
         <v>10.37</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="27">
         <v>1000</v>
       </c>
       <c r="G4" s="10">
@@ -1518,20 +1536,20 @@
       <c r="I4" s="10">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="J4" s="38"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="15">
         <v>42003</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="16">
         <v>7.11</v>
@@ -1540,23 +1558,23 @@
         <v>1600</v>
       </c>
       <c r="G5" s="17"/>
-      <c r="H5" s="23"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="17"/>
-      <c r="J5" s="38"/>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>42011</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="32">
+      <c r="D6" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="31">
         <v>7.14</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="27">
         <v>1600</v>
       </c>
       <c r="G6" s="10">
@@ -1569,20 +1587,20 @@
       <c r="I6" s="10">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="J6" s="38"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>26</v>
       </c>
       <c r="C7" s="15">
         <v>41992</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="16">
         <v>12.52</v>
@@ -1591,23 +1609,23 @@
         <v>800</v>
       </c>
       <c r="G7" s="17"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="38"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="35"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
-      <c r="C8" s="24">
+      <c r="C8" s="23">
         <v>42003</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="33">
+      <c r="D8" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="32">
         <v>13.9</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <v>800</v>
       </c>
       <c r="G8" s="10">
@@ -1620,20 +1638,20 @@
       <c r="I8" s="10">
         <v>0.108</v>
       </c>
-      <c r="J8" s="38"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>29</v>
       </c>
       <c r="C9" s="15">
         <v>41985</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="16">
         <v>3.47</v>
@@ -1642,23 +1660,23 @@
         <v>3000</v>
       </c>
       <c r="G9" s="17"/>
-      <c r="H9" s="23"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="38"/>
+      <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>41992</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="34">
+      <c r="D10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="33">
         <v>3.47</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="26">
         <v>3000</v>
       </c>
       <c r="G10" s="7">
@@ -1671,20 +1689,20 @@
       <c r="I10" s="7">
         <v>-2E-3</v>
       </c>
-      <c r="J10" s="38"/>
+      <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>22</v>
       </c>
       <c r="C11" s="15">
         <v>42011</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="16">
         <v>10.11</v>
@@ -1693,9 +1711,9 @@
         <v>1100</v>
       </c>
       <c r="G11" s="17"/>
-      <c r="H11" s="23"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="38"/>
+      <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="17"/>
@@ -1705,36 +1723,36 @@
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="23"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="38"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
+      <c r="A13" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="C14" s="15">
         <v>40695</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="16">
         <v>16.34</v>
@@ -1743,9 +1761,9 @@
         <v>1080</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="23"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="38"/>
+      <c r="J14" s="35"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="17"/>
@@ -1754,7 +1772,7 @@
         <v>41954</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="4">
         <v>27.55</v>
@@ -1765,42 +1783,42 @@
       <c r="G15" s="10">
         <v>0.68600000000000005</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="30">
         <f>G15/1258</f>
         <v>5.4531001589825127E-4</v>
       </c>
       <c r="I15" s="17"/>
-      <c r="J15" s="38" t="s">
-        <v>51</v>
+      <c r="J15" s="35" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="30">
+      <c r="C16" s="29">
         <v>41970</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="32">
+      <c r="D16" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="31">
         <v>30.2</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="27">
         <v>300</v>
       </c>
       <c r="G16" s="10">
         <v>0.84799999999999998</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="30">
         <f>G16/1273</f>
         <v>6.6614296936370779E-4</v>
       </c>
       <c r="I16" s="10">
         <v>0.72070000000000001</v>
       </c>
-      <c r="J16" s="38" t="s">
-        <v>52</v>
+      <c r="J16" s="35" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1811,22 +1829,22 @@
       <c r="E17" s="16"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="23"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="38"/>
+      <c r="J17" s="35"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>43</v>
       </c>
       <c r="C18" s="15">
         <v>40524</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="16">
         <v>19.68</v>
@@ -1835,9 +1853,9 @@
         <v>1820</v>
       </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="23"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="38"/>
+      <c r="J18" s="35"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="17"/>
@@ -1846,7 +1864,7 @@
         <v>41858</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="16">
         <v>9.08</v>
@@ -1855,9 +1873,9 @@
         <v>300</v>
       </c>
       <c r="G19" s="17"/>
-      <c r="H19" s="23"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="38"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="17"/>
@@ -1866,7 +1884,7 @@
         <v>41862</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="16">
         <v>9.18</v>
@@ -1875,9 +1893,9 @@
         <v>200</v>
       </c>
       <c r="G20" s="17"/>
-      <c r="H20" s="23"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="38"/>
+      <c r="J20" s="35"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="17"/>
@@ -1886,7 +1904,7 @@
         <v>41893</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="16">
         <v>8.6</v>
@@ -1895,9 +1913,9 @@
         <v>300</v>
       </c>
       <c r="G21" s="17"/>
-      <c r="H21" s="23"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="38"/>
+      <c r="J21" s="35"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="17"/>
@@ -1906,7 +1924,7 @@
         <v>41976</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16">
         <v>10.63</v>
@@ -1915,9 +1933,9 @@
         <v>2200</v>
       </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="23"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="38"/>
+      <c r="J22" s="35"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="17"/>
@@ -1926,7 +1944,7 @@
         <v>41988</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="16">
         <v>9.98</v>
@@ -1935,9 +1953,9 @@
         <v>200</v>
       </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="23"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="38"/>
+      <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="17"/>
@@ -1946,7 +1964,7 @@
         <v>41988</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="16">
         <v>9.9700000000000006</v>
@@ -1955,9 +1973,9 @@
         <v>600</v>
       </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="23"/>
+      <c r="H24" s="22"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="38"/>
+      <c r="J24" s="35"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="17"/>
@@ -1966,7 +1984,7 @@
         <v>41995</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" s="16">
         <v>10.4</v>
@@ -1974,16 +1992,16 @@
       <c r="F25" s="17">
         <v>1820</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G25" s="36">
         <v>-0.47149999999999997</v>
       </c>
-      <c r="H25" s="43">
+      <c r="H25" s="37">
         <f>G25/1463</f>
         <v>-3.22282980177717E-4</v>
       </c>
       <c r="I25" s="17"/>
-      <c r="J25" s="39" t="s">
-        <v>53</v>
+      <c r="J25" s="41" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1993,7 +2011,7 @@
         <v>41995</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" s="16">
         <v>10.4</v>
@@ -2001,16 +2019,16 @@
       <c r="F26" s="17">
         <v>300</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="38">
         <f>(E26-E19)/E19</f>
         <v>0.14537444933920707</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="30">
         <f>G26/138</f>
         <v>1.0534380386899064E-3</v>
       </c>
       <c r="I26" s="17"/>
-      <c r="J26" s="40"/>
+      <c r="J26" s="42"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="17"/>
@@ -2019,7 +2037,7 @@
         <v>41995</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" s="16">
         <v>10.4</v>
@@ -2027,16 +2045,16 @@
       <c r="F27" s="17">
         <v>200</v>
       </c>
-      <c r="G27" s="44">
+      <c r="G27" s="38">
         <f>(E27-E20)/E20</f>
         <v>0.13289760348583884</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="30">
         <f>G27/134</f>
         <v>9.9177316034208102E-4</v>
       </c>
       <c r="I27" s="17"/>
-      <c r="J27" s="40"/>
+      <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="17"/>
@@ -2045,7 +2063,7 @@
         <v>41995</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" s="16">
         <v>10.4</v>
@@ -2053,16 +2071,16 @@
       <c r="F28" s="17">
         <v>300</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="38">
         <f>(E28-E21)/E21</f>
         <v>0.20930232558139544</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="30">
         <f>G28/103</f>
         <v>2.0320614134116061E-3</v>
       </c>
       <c r="I28" s="17"/>
-      <c r="J28" s="41"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="17"/>
@@ -2071,7 +2089,7 @@
         <v>42039</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" s="16">
         <v>10.75</v>
@@ -2079,11 +2097,11 @@
       <c r="F29" s="17">
         <v>2000</v>
       </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="23"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="22"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="38" t="s">
-        <v>54</v>
+      <c r="J29" s="35" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2093,7 +2111,7 @@
         <v>42051</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="16">
         <v>10.51</v>
@@ -2101,11 +2119,11 @@
       <c r="F30" s="17">
         <v>2000</v>
       </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="23"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="38" t="s">
-        <v>55</v>
+      <c r="J30" s="35" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2116,22 +2134,22 @@
       <c r="E31" s="16"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="23"/>
+      <c r="H31" s="22"/>
       <c r="I31" s="17"/>
-      <c r="J31" s="38"/>
+      <c r="J31" s="35"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="C32" s="15">
         <v>41971</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" s="16">
         <v>12.47</v>
@@ -2140,10 +2158,10 @@
         <v>2000</v>
       </c>
       <c r="G32" s="17"/>
-      <c r="H32" s="23"/>
+      <c r="H32" s="22"/>
       <c r="I32" s="17"/>
-      <c r="J32" s="38" t="s">
-        <v>56</v>
+      <c r="J32" s="35" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2153,7 +2171,7 @@
         <v>41995</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" s="16">
         <v>12.99</v>
@@ -2162,10 +2180,10 @@
         <v>1200</v>
       </c>
       <c r="G33" s="17"/>
-      <c r="H33" s="23"/>
+      <c r="H33" s="22"/>
       <c r="I33" s="17"/>
-      <c r="J33" s="45" t="s">
-        <v>57</v>
+      <c r="J33" s="44" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2175,7 +2193,7 @@
         <v>41997</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="16">
         <v>12.02</v>
@@ -2184,9 +2202,9 @@
         <v>1800</v>
       </c>
       <c r="G34" s="17"/>
-      <c r="H34" s="23"/>
+      <c r="H34" s="22"/>
       <c r="I34" s="17"/>
-      <c r="J34" s="41"/>
+      <c r="J34" s="43"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="17"/>
@@ -2196,9 +2214,9 @@
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="23"/>
+      <c r="H35" s="22"/>
       <c r="I35" s="17"/>
-      <c r="J35" s="38"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="17"/>
@@ -2208,9 +2226,9 @@
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="23"/>
+      <c r="H36" s="22"/>
       <c r="I36" s="17"/>
-      <c r="J36" s="38"/>
+      <c r="J36" s="35"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="17"/>
@@ -2220,9 +2238,9 @@
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="23"/>
+      <c r="H37" s="22"/>
       <c r="I37" s="17"/>
-      <c r="J37" s="38"/>
+      <c r="J37" s="35"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="17"/>
@@ -2232,9 +2250,9 @@
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
-      <c r="H38" s="23"/>
+      <c r="H38" s="22"/>
       <c r="I38" s="17"/>
-      <c r="J38" s="38"/>
+      <c r="J38" s="35"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="17"/>
@@ -2244,9 +2262,9 @@
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
-      <c r="H39" s="23"/>
+      <c r="H39" s="22"/>
       <c r="I39" s="17"/>
-      <c r="J39" s="38"/>
+      <c r="J39" s="35"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="17"/>
@@ -2256,9 +2274,9 @@
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="23"/>
+      <c r="H40" s="22"/>
       <c r="I40" s="17"/>
-      <c r="J40" s="38"/>
+      <c r="J40" s="35"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="17"/>
@@ -2268,9 +2286,9 @@
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="23"/>
+      <c r="H41" s="22"/>
       <c r="I41" s="17"/>
-      <c r="J41" s="38"/>
+      <c r="J41" s="35"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="17"/>
@@ -2282,7 +2300,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
-      <c r="J42" s="38"/>
+      <c r="J42" s="35"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="17"/>
@@ -2294,7 +2312,7 @@
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
-      <c r="J43" s="38"/>
+      <c r="J43" s="35"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="17"/>
@@ -2306,7 +2324,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
-      <c r="J44" s="38"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="17"/>
@@ -2318,7 +2336,7 @@
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
-      <c r="J45" s="38"/>
+      <c r="J45" s="35"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="17"/>
@@ -2330,7 +2348,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
-      <c r="J46" s="38"/>
+      <c r="J46" s="35"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="17"/>
@@ -2342,7 +2360,7 @@
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
-      <c r="J47" s="38"/>
+      <c r="J47" s="35"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="17"/>
@@ -2354,7 +2372,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
-      <c r="J48" s="38"/>
+      <c r="J48" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/investment/record.xlsx
+++ b/investment/record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,14 @@
   </si>
   <si>
     <t>打新融资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的2月工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月佣金宝利息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,7 +271,7 @@
     <numFmt numFmtId="176" formatCode="&quot;US$&quot;#,##0.00_);[Red]\(&quot;US$&quot;#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="&quot;US$&quot;#,##0.00;\-&quot;US$&quot;#,##0.00"/>
     <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="180" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -546,6 +554,9 @@
     <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,9 +579,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -909,7 +917,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3">
@@ -929,7 +937,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -938,7 +946,7 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -947,7 +955,7 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="39"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -956,7 +964,7 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3">
@@ -976,7 +984,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -985,7 +993,7 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -994,7 +1002,7 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="39"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1003,7 +1011,7 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="40" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3">
@@ -1025,7 +1033,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1034,7 +1042,7 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="39"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1043,7 +1051,7 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="39"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1065,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1106,10 +1114,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="39">
         <v>42005</v>
       </c>
       <c r="C2" s="16">
@@ -1128,8 +1136,8 @@
       <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="40"/>
-      <c r="B3" s="47">
+      <c r="A3" s="41"/>
+      <c r="B3" s="39">
         <v>42045</v>
       </c>
       <c r="C3" s="16">
@@ -1148,8 +1156,8 @@
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="40"/>
-      <c r="B4" s="47">
+      <c r="A4" s="41"/>
+      <c r="B4" s="39">
         <v>42051</v>
       </c>
       <c r="C4" s="16">
@@ -1170,8 +1178,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="40"/>
-      <c r="B5" s="47">
+      <c r="A5" s="41"/>
+      <c r="B5" s="39">
         <v>42063</v>
       </c>
       <c r="C5" s="16">
@@ -1187,11 +1195,13 @@
         <f>F4+C5-D5+E5</f>
         <v>191462.69999999998</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="35" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="40"/>
-      <c r="B6" s="47">
+      <c r="A6" s="41"/>
+      <c r="B6" s="39">
         <v>42068</v>
       </c>
       <c r="C6" s="16">
@@ -1212,12 +1222,12 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="40"/>
-      <c r="B7" s="47">
+      <c r="A7" s="41"/>
+      <c r="B7" s="39">
         <v>42074</v>
       </c>
       <c r="C7" s="16">
-        <v>364000</v>
+        <v>350000</v>
       </c>
       <c r="D7" s="16">
         <v>0</v>
@@ -1227,17 +1237,19 @@
       </c>
       <c r="F7" s="16">
         <f>F6+C7-D7+E7</f>
-        <v>562462.69999999995</v>
+        <v>548462.69999999995</v>
       </c>
       <c r="G7" s="35" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="40"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="39">
+        <v>42074</v>
+      </c>
       <c r="C8" s="16">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="D8" s="16">
         <v>0</v>
@@ -1245,14 +1257,21 @@
       <c r="E8" s="16">
         <v>0</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="F8" s="16">
+        <f>F7+C8-D8+E8</f>
+        <v>562462.69999999995</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="40"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="39">
+        <v>42075</v>
+      </c>
       <c r="C9" s="16">
-        <v>0</v>
+        <v>490000</v>
       </c>
       <c r="D9" s="16">
         <v>0</v>
@@ -1260,12 +1279,17 @@
       <c r="E9" s="16">
         <v>0</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="F9" s="16">
+        <f>F8+C9-D9+E9</f>
+        <v>1052462.7</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="40"/>
-      <c r="B10" s="47"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="16">
         <v>0</v>
       </c>
@@ -1279,53 +1303,48 @@
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="41"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B12" s="39">
         <v>41639</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C12" s="19">
         <v>13684</v>
       </c>
-      <c r="D11" s="19">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0</v>
-      </c>
-      <c r="F11" s="19">
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
         <v>13684</v>
       </c>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="40"/>
-      <c r="B12" s="47">
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="41"/>
+      <c r="B13" s="39">
         <v>41992</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C13" s="19">
         <v>3071.25</v>
-      </c>
-      <c r="D12" s="19">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19">
-        <v>0</v>
-      </c>
-      <c r="F12" s="19">
-        <f>F11+C12-D12+E12</f>
-        <v>16755.25</v>
-      </c>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="40"/>
-      <c r="B13" s="47">
-        <v>42004</v>
-      </c>
-      <c r="C13" s="19">
-        <v>14393.08</v>
       </c>
       <c r="D13" s="19">
         <v>0</v>
@@ -1335,16 +1354,29 @@
       </c>
       <c r="F13" s="19">
         <f>F12+C13-D13+E13</f>
+        <v>16755.25</v>
+      </c>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="41"/>
+      <c r="B14" s="39">
+        <v>42004</v>
+      </c>
+      <c r="C14" s="19">
+        <v>14393.08</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="19">
+        <f>F13+C14-D14+E14</f>
         <v>31148.33</v>
       </c>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="13"/>
@@ -1409,10 +1441,17 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1474,18 +1513,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="17" t="s">
@@ -1728,18 +1767,18 @@
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="17" t="s">
@@ -2000,7 +2039,7 @@
         <v>-3.22282980177717E-4</v>
       </c>
       <c r="I25" s="17"/>
-      <c r="J25" s="41" t="s">
+      <c r="J25" s="42" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2028,7 +2067,7 @@
         <v>1.0534380386899064E-3</v>
       </c>
       <c r="I26" s="17"/>
-      <c r="J26" s="42"/>
+      <c r="J26" s="43"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="17"/>
@@ -2054,7 +2093,7 @@
         <v>9.9177316034208102E-4</v>
       </c>
       <c r="I27" s="17"/>
-      <c r="J27" s="42"/>
+      <c r="J27" s="43"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="17"/>
@@ -2080,7 +2119,7 @@
         <v>2.0320614134116061E-3</v>
       </c>
       <c r="I28" s="17"/>
-      <c r="J28" s="43"/>
+      <c r="J28" s="44"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="17"/>
@@ -2182,7 +2221,7 @@
       <c r="G33" s="17"/>
       <c r="H33" s="22"/>
       <c r="I33" s="17"/>
-      <c r="J33" s="44" t="s">
+      <c r="J33" s="45" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2204,7 +2243,7 @@
       <c r="G34" s="17"/>
       <c r="H34" s="22"/>
       <c r="I34" s="17"/>
-      <c r="J34" s="43"/>
+      <c r="J34" s="44"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="17"/>

--- a/investment/record.xlsx
+++ b/investment/record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,6 +259,10 @@
   </si>
   <si>
     <t>2月佣金宝利息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老婆卡临时转入补充打新</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1076,7 +1080,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1086,7 +1090,7 @@
     <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
     <col min="4" max="5" width="13.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.75" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1289,9 +1293,11 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="41"/>
-      <c r="B10" s="39"/>
+      <c r="B10" s="39">
+        <v>42076</v>
+      </c>
       <c r="C10" s="16">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D10" s="16">
         <v>0</v>
@@ -1299,8 +1305,13 @@
       <c r="E10" s="16">
         <v>0</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="F10" s="16">
+        <f>F9+C10-D10+E10</f>
+        <v>1053462.7</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="41"/>

--- a/investment/record.xlsx
+++ b/investment/record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="损益" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,34 @@
   </si>
   <si>
     <t>老婆卡临时转入补充打新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上证指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深证成指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中小板指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业板指</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道琼斯指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳斯达克指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -510,15 +538,9 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -526,9 +548,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -552,11 +571,11 @@
     <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -583,6 +602,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -879,10 +919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -921,7 +961,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3">
@@ -941,7 +981,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="40"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -950,7 +990,7 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="40"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -959,7 +999,7 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="40"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -968,7 +1008,7 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3">
@@ -988,7 +1028,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="40"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -997,7 +1037,7 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="40"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1006,7 +1046,7 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="40"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1015,7 +1055,7 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3">
@@ -1037,7 +1077,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="40"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1046,7 +1086,7 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="40"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1055,13 +1095,146 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="40"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1">
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="36">
+        <v>42005</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1">
+      <c r="B15" s="36"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" s="1" customFormat="1">
+      <c r="B16" s="36"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1">
+      <c r="B17" s="36"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" s="1" customFormat="1">
+      <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="36">
+        <v>42005</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" s="1" customFormat="1">
+      <c r="B19" s="36"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1">
+      <c r="B20" s="36"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1">
+      <c r="B21" s="36"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1">
+      <c r="A22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="36">
+        <v>42005</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1">
+      <c r="B23" s="36"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1">
+      <c r="B24" s="36"/>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1">
+      <c r="B25" s="36"/>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="36">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1">
+      <c r="B27" s="36"/>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1">
+      <c r="B28" s="36"/>
+    </row>
+    <row r="29" spans="1:6" s="1" customFormat="1">
+      <c r="B29" s="36"/>
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1">
+      <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="36">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="1" customFormat="1">
+      <c r="B31" s="36"/>
+    </row>
+    <row r="32" spans="1:6" s="1" customFormat="1">
+      <c r="B32" s="36"/>
+    </row>
+    <row r="33" spans="1:2" s="1" customFormat="1">
+      <c r="B33" s="36"/>
+    </row>
+    <row r="34" spans="1:2" s="1" customFormat="1">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="36">
+        <v>42005</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1077,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1098,7 +1271,7 @@
       <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="20" t="s">
@@ -1118,10 +1291,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="36">
         <v>42005</v>
       </c>
       <c r="C2" s="16">
@@ -1140,8 +1313,8 @@
       <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="41"/>
-      <c r="B3" s="39">
+      <c r="A3" s="38"/>
+      <c r="B3" s="36">
         <v>42045</v>
       </c>
       <c r="C3" s="16">
@@ -1160,8 +1333,8 @@
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="41"/>
-      <c r="B4" s="39">
+      <c r="A4" s="38"/>
+      <c r="B4" s="36">
         <v>42051</v>
       </c>
       <c r="C4" s="16">
@@ -1177,13 +1350,13 @@
         <f>F3+C4-D4+E4</f>
         <v>191403.09</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="32" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="41"/>
-      <c r="B5" s="39">
+      <c r="A5" s="38"/>
+      <c r="B5" s="36">
         <v>42063</v>
       </c>
       <c r="C5" s="16">
@@ -1199,13 +1372,13 @@
         <f>F4+C5-D5+E5</f>
         <v>191462.69999999998</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="32" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="41"/>
-      <c r="B6" s="39">
+      <c r="A6" s="38"/>
+      <c r="B6" s="36">
         <v>42068</v>
       </c>
       <c r="C6" s="16">
@@ -1221,13 +1394,13 @@
         <f>F5+C6-D6+E6</f>
         <v>198462.69999999998</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="41"/>
-      <c r="B7" s="39">
+      <c r="A7" s="38"/>
+      <c r="B7" s="36">
         <v>42074</v>
       </c>
       <c r="C7" s="16">
@@ -1243,13 +1416,13 @@
         <f>F6+C7-D7+E7</f>
         <v>548462.69999999995</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="32" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="41"/>
-      <c r="B8" s="39">
+      <c r="A8" s="38"/>
+      <c r="B8" s="36">
         <v>42074</v>
       </c>
       <c r="C8" s="16">
@@ -1265,13 +1438,13 @@
         <f>F7+C8-D8+E8</f>
         <v>562462.69999999995</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="32" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="41"/>
-      <c r="B9" s="39">
+      <c r="A9" s="38"/>
+      <c r="B9" s="36">
         <v>42075</v>
       </c>
       <c r="C9" s="16">
@@ -1287,13 +1460,13 @@
         <f>F8+C9-D9+E9</f>
         <v>1052462.7</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="32" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="41"/>
-      <c r="B10" s="39">
+      <c r="A10" s="38"/>
+      <c r="B10" s="36">
         <v>42076</v>
       </c>
       <c r="C10" s="16">
@@ -1309,13 +1482,13 @@
         <f>F9+C10-D10+E10</f>
         <v>1053462.7</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="41"/>
-      <c r="B11" s="39"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="16">
         <v>0</v>
       </c>
@@ -1329,10 +1502,10 @@
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="36">
         <v>41639</v>
       </c>
       <c r="C12" s="19">
@@ -1350,8 +1523,8 @@
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="41"/>
-      <c r="B13" s="39">
+      <c r="A13" s="38"/>
+      <c r="B13" s="36">
         <v>41992</v>
       </c>
       <c r="C13" s="19">
@@ -1370,8 +1543,8 @@
       <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="41"/>
-      <c r="B14" s="39">
+      <c r="A14" s="38"/>
+      <c r="B14" s="36">
         <v>42004</v>
       </c>
       <c r="C14" s="19">
@@ -1388,76 +1561,6 @@
         <v>31148.33</v>
       </c>
       <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1475,19 +1578,19 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="11.625" style="13" customWidth="1"/>
     <col min="2" max="2" width="9" style="13"/>
-    <col min="3" max="3" width="10.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="13"/>
     <col min="7" max="7" width="10.375" style="13" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="13" customWidth="1"/>
     <col min="9" max="9" width="12.375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="36" style="34" customWidth="1"/>
+    <col min="10" max="10" width="36" style="31" customWidth="1"/>
     <col min="11" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
@@ -1498,7 +1601,7 @@
       <c r="B1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="35" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="20" t="s">
@@ -1524,18 +1627,18 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="17" t="s">
@@ -1544,7 +1647,7 @@
       <c r="B3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="36">
         <v>41981</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -1559,21 +1662,21 @@
       <c r="G3" s="17"/>
       <c r="H3" s="22"/>
       <c r="I3" s="17"/>
-      <c r="J3" s="35"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="23">
+      <c r="C4" s="48">
         <v>41985</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="28">
         <v>10.37</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="25">
         <v>1000</v>
       </c>
       <c r="G4" s="10">
@@ -1586,7 +1689,7 @@
       <c r="I4" s="10">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="J4" s="35"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="17" t="s">
@@ -1595,7 +1698,7 @@
       <c r="B5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="36">
         <v>42003</v>
       </c>
       <c r="D5" s="17" t="s">
@@ -1610,21 +1713,21 @@
       <c r="G5" s="17"/>
       <c r="H5" s="22"/>
       <c r="I5" s="17"/>
-      <c r="J5" s="35"/>
+      <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="23">
+      <c r="C6" s="48">
         <v>42011</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="28">
         <v>7.14</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="25">
         <v>1600</v>
       </c>
       <c r="G6" s="10">
@@ -1637,7 +1740,7 @@
       <c r="I6" s="10">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="J6" s="35"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="17" t="s">
@@ -1646,7 +1749,7 @@
       <c r="B7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="36">
         <v>41992</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -1660,22 +1763,22 @@
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="22"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="35"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
-      <c r="C8" s="23">
+      <c r="C8" s="48">
         <v>42003</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="29">
         <v>13.9</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <v>800</v>
       </c>
       <c r="G8" s="10">
@@ -1688,7 +1791,7 @@
       <c r="I8" s="10">
         <v>0.108</v>
       </c>
-      <c r="J8" s="35"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="17" t="s">
@@ -1697,7 +1800,7 @@
       <c r="B9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="36">
         <v>41985</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -1712,21 +1815,21 @@
       <c r="G9" s="17"/>
       <c r="H9" s="22"/>
       <c r="I9" s="17"/>
-      <c r="J9" s="35"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
-      <c r="C10" s="25">
+      <c r="C10" s="49">
         <v>41992</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="30">
         <v>3.47</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="24">
         <v>3000</v>
       </c>
       <c r="G10" s="7">
@@ -1739,7 +1842,7 @@
       <c r="I10" s="7">
         <v>-2E-3</v>
       </c>
-      <c r="J10" s="35"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="17" t="s">
@@ -1748,7 +1851,7 @@
       <c r="B11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="36">
         <v>42011</v>
       </c>
       <c r="D11" s="15" t="s">
@@ -1763,33 +1866,33 @@
       <c r="G11" s="17"/>
       <c r="H11" s="22"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="35"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
-      <c r="C12" s="15"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="15"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="22"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="35"/>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="17" t="s">
@@ -1798,7 +1901,7 @@
       <c r="B14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="36">
         <v>40695</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -1813,12 +1916,12 @@
       <c r="G14" s="7"/>
       <c r="H14" s="22"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="35"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="15">
+      <c r="C15" s="36">
         <v>41954</v>
       </c>
       <c r="D15" s="17" t="s">
@@ -1833,55 +1936,55 @@
       <c r="G15" s="10">
         <v>0.68600000000000005</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H15" s="27">
         <f>G15/1258</f>
         <v>5.4531001589825127E-4</v>
       </c>
       <c r="I15" s="17"/>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="32" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="29">
+      <c r="C16" s="51">
         <v>41970</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="28">
         <v>30.2</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="25">
         <v>300</v>
       </c>
       <c r="G16" s="10">
         <v>0.84799999999999998</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="27">
         <f>G16/1273</f>
         <v>6.6614296936370779E-4</v>
       </c>
       <c r="I16" s="10">
         <v>0.72070000000000001</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="32" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="17"/>
       <c r="E17" s="16"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="22"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="35"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="17" t="s">
@@ -1890,7 +1993,7 @@
       <c r="B18" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="36">
         <v>40524</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -1905,12 +2008,12 @@
       <c r="G18" s="17"/>
       <c r="H18" s="22"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="35"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="15">
+      <c r="C19" s="36">
         <v>41858</v>
       </c>
       <c r="D19" s="17" t="s">
@@ -1925,12 +2028,12 @@
       <c r="G19" s="17"/>
       <c r="H19" s="22"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="35"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="15">
+      <c r="C20" s="36">
         <v>41862</v>
       </c>
       <c r="D20" s="17" t="s">
@@ -1945,12 +2048,12 @@
       <c r="G20" s="17"/>
       <c r="H20" s="22"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="35"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="15">
+      <c r="C21" s="36">
         <v>41893</v>
       </c>
       <c r="D21" s="17" t="s">
@@ -1965,12 +2068,12 @@
       <c r="G21" s="17"/>
       <c r="H21" s="22"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="35"/>
+      <c r="J21" s="32"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
-      <c r="C22" s="15">
+      <c r="C22" s="36">
         <v>41976</v>
       </c>
       <c r="D22" s="17" t="s">
@@ -1985,12 +2088,12 @@
       <c r="G22" s="17"/>
       <c r="H22" s="22"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="35"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="15">
+      <c r="C23" s="36">
         <v>41988</v>
       </c>
       <c r="D23" s="17" t="s">
@@ -2005,12 +2108,12 @@
       <c r="G23" s="17"/>
       <c r="H23" s="22"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="35"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
-      <c r="C24" s="15">
+      <c r="C24" s="36">
         <v>41988</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -2025,39 +2128,39 @@
       <c r="G24" s="17"/>
       <c r="H24" s="22"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="35"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="15">
+      <c r="J24" s="32"/>
+    </row>
+    <row r="25" spans="1:10" s="47" customFormat="1">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="49">
         <v>41995</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="16">
+      <c r="D25" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="5">
         <v>10.4</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="45">
         <v>1820</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="46">
         <v>-0.47149999999999997</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="7">
         <f>G25/1463</f>
         <v>-3.22282980177717E-4</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="42" t="s">
+      <c r="I25" s="45"/>
+      <c r="J25" s="39" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
-      <c r="C26" s="15">
+      <c r="C26" s="36">
         <v>41995</v>
       </c>
       <c r="D26" s="17" t="s">
@@ -2069,21 +2172,21 @@
       <c r="F26" s="17">
         <v>300</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="34">
         <f>(E26-E19)/E19</f>
         <v>0.14537444933920707</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="27">
         <f>G26/138</f>
         <v>1.0534380386899064E-3</v>
       </c>
       <c r="I26" s="17"/>
-      <c r="J26" s="43"/>
+      <c r="J26" s="40"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="15">
+      <c r="C27" s="36">
         <v>41995</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -2095,21 +2198,21 @@
       <c r="F27" s="17">
         <v>200</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="34">
         <f>(E27-E20)/E20</f>
         <v>0.13289760348583884</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="27">
         <f>G27/134</f>
         <v>9.9177316034208102E-4</v>
       </c>
       <c r="I27" s="17"/>
-      <c r="J27" s="43"/>
+      <c r="J27" s="40"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="15">
+      <c r="C28" s="36">
         <v>41995</v>
       </c>
       <c r="D28" s="17" t="s">
@@ -2121,21 +2224,21 @@
       <c r="F28" s="17">
         <v>300</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="34">
         <f>(E28-E21)/E21</f>
         <v>0.20930232558139544</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="27">
         <f>G28/103</f>
         <v>2.0320614134116061E-3</v>
       </c>
       <c r="I28" s="17"/>
-      <c r="J28" s="44"/>
+      <c r="J28" s="41"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="15">
+      <c r="C29" s="36">
         <v>42039</v>
       </c>
       <c r="D29" s="17" t="s">
@@ -2147,17 +2250,17 @@
       <c r="F29" s="17">
         <v>2000</v>
       </c>
-      <c r="G29" s="36"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="22"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="35" t="s">
+      <c r="J29" s="32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="15">
+      <c r="C30" s="36">
         <v>42051</v>
       </c>
       <c r="D30" s="17" t="s">
@@ -2169,24 +2272,24 @@
       <c r="F30" s="17">
         <v>2000</v>
       </c>
-      <c r="G30" s="36"/>
+      <c r="G30" s="33"/>
       <c r="H30" s="22"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="35" t="s">
+      <c r="J30" s="32" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="17"/>
       <c r="E31" s="16"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="22"/>
       <c r="I31" s="17"/>
-      <c r="J31" s="35"/>
+      <c r="J31" s="32"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="17" t="s">
@@ -2195,7 +2298,7 @@
       <c r="B32" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="36">
         <v>41971</v>
       </c>
       <c r="D32" s="17" t="s">
@@ -2210,14 +2313,14 @@
       <c r="G32" s="17"/>
       <c r="H32" s="22"/>
       <c r="I32" s="17"/>
-      <c r="J32" s="35" t="s">
+      <c r="J32" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="15">
+      <c r="C33" s="36">
         <v>41995</v>
       </c>
       <c r="D33" s="17" t="s">
@@ -2232,14 +2335,14 @@
       <c r="G33" s="17"/>
       <c r="H33" s="22"/>
       <c r="I33" s="17"/>
-      <c r="J33" s="45" t="s">
+      <c r="J33" s="42" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
-      <c r="C34" s="15">
+      <c r="C34" s="36">
         <v>41997</v>
       </c>
       <c r="D34" s="17" t="s">
@@ -2254,175 +2357,175 @@
       <c r="G34" s="17"/>
       <c r="H34" s="22"/>
       <c r="I34" s="17"/>
-      <c r="J34" s="44"/>
+      <c r="J34" s="41"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="22"/>
       <c r="I35" s="17"/>
-      <c r="J35" s="35"/>
+      <c r="J35" s="32"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="22"/>
       <c r="I36" s="17"/>
-      <c r="J36" s="35"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
       <c r="H37" s="22"/>
       <c r="I37" s="17"/>
-      <c r="J37" s="35"/>
+      <c r="J37" s="32"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+      <c r="C38" s="18"/>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
       <c r="H38" s="22"/>
       <c r="I38" s="17"/>
-      <c r="J38" s="35"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
       <c r="H39" s="22"/>
       <c r="I39" s="17"/>
-      <c r="J39" s="35"/>
+      <c r="J39" s="32"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
+      <c r="C40" s="18"/>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="22"/>
       <c r="I40" s="17"/>
-      <c r="J40" s="35"/>
+      <c r="J40" s="32"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="22"/>
       <c r="I41" s="17"/>
-      <c r="J41" s="35"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
+      <c r="C42" s="18"/>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
-      <c r="J42" s="35"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
-      <c r="J43" s="35"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
-      <c r="J44" s="35"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
-      <c r="J45" s="35"/>
+      <c r="J45" s="32"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
+      <c r="C46" s="18"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
-      <c r="J46" s="35"/>
+      <c r="J46" s="32"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
+      <c r="C47" s="18"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
-      <c r="J47" s="35"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
+      <c r="C48" s="18"/>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
-      <c r="J48" s="35"/>
+      <c r="J48" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/investment/record.xlsx
+++ b/investment/record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,6 +291,10 @@
   </si>
   <si>
     <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒生指数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -462,13 +466,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -623,6 +653,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -919,15 +961,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="12.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="2" customWidth="1"/>
@@ -1095,7 +1137,7 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="37"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1104,143 +1146,311 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="38" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="36">
         <v>42005</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17">
+        <v>3234.68</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1">
+      <c r="A15" s="38"/>
       <c r="B15" s="36"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1">
+      <c r="A16" s="38"/>
       <c r="B16" s="36"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1">
+      <c r="A17" s="38"/>
       <c r="B17" s="36"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1">
-      <c r="A18" s="1" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1">
+      <c r="A18" s="38" t="s">
         <v>63</v>
       </c>
       <c r="B18" s="36">
         <v>42005</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17">
+        <v>11014.62</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1">
+      <c r="A19" s="38"/>
       <c r="B19" s="36"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1">
+      <c r="A20" s="38"/>
       <c r="B20" s="36"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1">
+      <c r="A21" s="38"/>
       <c r="B21" s="36"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1">
-      <c r="A22" s="1" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1">
+      <c r="A22" s="38" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="36">
         <v>42005</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" s="1" customFormat="1">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17">
+        <v>5461.19</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1">
+      <c r="A23" s="38"/>
       <c r="B23" s="36"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1">
+      <c r="A24" s="38"/>
       <c r="B24" s="36"/>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1">
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1">
+      <c r="A25" s="38"/>
       <c r="B25" s="36"/>
-    </row>
-    <row r="26" spans="1:6" s="1" customFormat="1">
-      <c r="A26" s="1" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1">
+      <c r="A26" s="38" t="s">
         <v>65</v>
       </c>
       <c r="B26" s="36">
         <v>42005</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" s="1" customFormat="1">
+      <c r="C26" s="18"/>
+      <c r="D26" s="17">
+        <v>1471.76</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1">
+      <c r="A27" s="38"/>
       <c r="B27" s="36"/>
-    </row>
-    <row r="28" spans="1:6" s="1" customFormat="1">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1">
+      <c r="A28" s="38"/>
       <c r="B28" s="36"/>
-    </row>
-    <row r="29" spans="1:6" s="1" customFormat="1">
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1">
+      <c r="A29" s="38"/>
       <c r="B29" s="36"/>
-    </row>
-    <row r="30" spans="1:6" s="1" customFormat="1">
-      <c r="A30" s="1" t="s">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1">
+      <c r="A30" s="38" t="s">
         <v>66</v>
       </c>
       <c r="B30" s="36">
         <v>42005</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" s="1" customFormat="1">
+      <c r="C30" s="18"/>
+      <c r="D30" s="17">
+        <v>17823.07</v>
+      </c>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1">
+      <c r="A31" s="38"/>
       <c r="B31" s="36"/>
-    </row>
-    <row r="32" spans="1:6" s="1" customFormat="1">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1">
+      <c r="A32" s="38"/>
       <c r="B32" s="36"/>
-    </row>
-    <row r="33" spans="1:2" s="1" customFormat="1">
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="1:7" s="1" customFormat="1">
+      <c r="A33" s="38"/>
       <c r="B33" s="36"/>
-    </row>
-    <row r="34" spans="1:2" s="1" customFormat="1">
-      <c r="A34" s="1" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7" s="1" customFormat="1">
+      <c r="A34" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="54">
         <v>42005</v>
       </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="17">
+        <v>4736.05</v>
+      </c>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="38"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="38"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="38"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="53"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="36">
+        <v>42005</v>
+      </c>
+      <c r="C38" s="53"/>
+      <c r="D38" s="6">
+        <v>23605.040000000001</v>
+      </c>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="53"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="37"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="53"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="37"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="53"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="37"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="10">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/investment/record.xlsx
+++ b/investment/record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>恒生指数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,6 +323,14 @@
   </si>
   <si>
     <t>投资增值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易收益额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单股收益额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1018,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>72</v>
-      </c>
       <c r="F1" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>2</v>
@@ -1039,13 +1051,13 @@
         <v>56</v>
       </c>
       <c r="K1" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="N1" s="34" t="s">
         <v>70</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1606,7 +1618,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" s="35">
         <v>42005</v>
@@ -2008,10 +2020,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -2019,15 +2031,17 @@
     <col min="1" max="1" width="11.625" style="12" customWidth="1"/>
     <col min="2" max="2" width="9" style="12"/>
     <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="12"/>
+    <col min="4" max="6" width="9" style="12"/>
+    <col min="7" max="7" width="12.125" style="12" customWidth="1"/>
     <col min="8" max="8" width="12.375" style="12" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="12" customWidth="1"/>
-    <col min="11" max="11" width="36" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="12"/>
+    <col min="10" max="10" width="10.5" style="12" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="12" customWidth="1"/>
+    <col min="12" max="12" width="36" style="30" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
@@ -2046,21 +2060,26 @@
       <c r="F1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="34"/>
+      <c r="G1" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="H1" s="19" t="s">
         <v>46</v>
       </c>
       <c r="I1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="42" t="s">
         <v>36</v>
       </c>
@@ -2074,8 +2093,9 @@
       <c r="I2" s="42"/>
       <c r="J2" s="42"/>
       <c r="K2" s="42"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="42"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="16" t="s">
         <v>29</v>
       </c>
@@ -2094,13 +2114,14 @@
       <c r="F3" s="16">
         <v>1000</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="16"/>
       <c r="I3" s="21"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="J3" s="21"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="47">
@@ -2115,7 +2136,10 @@
       <c r="F4" s="24">
         <v>1000</v>
       </c>
-      <c r="G4" s="24"/>
+      <c r="G4" s="27">
+        <f>E3*H4*F4</f>
+        <v>449.46000000000004</v>
+      </c>
       <c r="H4" s="9">
         <v>4.5400000000000003E-2</v>
       </c>
@@ -2123,12 +2147,16 @@
         <f>H4/5</f>
         <v>9.0800000000000013E-3</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="27">
+        <f>G4</f>
+        <v>449.46000000000004</v>
+      </c>
+      <c r="K4" s="9">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="31"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="16" t="s">
         <v>33</v>
       </c>
@@ -2147,13 +2175,14 @@
       <c r="F5" s="16">
         <v>1600</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="16"/>
       <c r="I5" s="21"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="J5" s="21"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="31"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="47">
@@ -2168,7 +2197,10 @@
       <c r="F6" s="24">
         <v>1600</v>
       </c>
-      <c r="G6" s="24"/>
+      <c r="G6" s="27">
+        <f>E5*F6*H6</f>
+        <v>25.027200000000001</v>
+      </c>
       <c r="H6" s="9">
         <v>2.2000000000000001E-3</v>
       </c>
@@ -2176,12 +2208,16 @@
         <f>H6/9</f>
         <v>2.4444444444444448E-4</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="27">
+        <f>G6</f>
+        <v>25.027200000000001</v>
+      </c>
+      <c r="K6" s="9">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="K6" s="31"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="31"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="16" t="s">
         <v>23</v>
       </c>
@@ -2200,13 +2236,14 @@
       <c r="F7" s="16">
         <v>800</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="16"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="J7" s="21"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="47">
@@ -2221,7 +2258,10 @@
       <c r="F8" s="22">
         <v>800</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="28">
+        <f>E7*F8*H8</f>
+        <v>1081.7280000000001</v>
+      </c>
       <c r="H8" s="9">
         <v>0.108</v>
       </c>
@@ -2229,12 +2269,16 @@
         <f>H8/12</f>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="27">
+        <f>G8</f>
+        <v>1081.7280000000001</v>
+      </c>
+      <c r="K8" s="9">
         <v>0.108</v>
       </c>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="31"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="16" t="s">
         <v>26</v>
       </c>
@@ -2253,13 +2297,14 @@
       <c r="F9" s="16">
         <v>3000</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="16"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="J9" s="21"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="31"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="48">
@@ -2274,7 +2319,10 @@
       <c r="F10" s="23">
         <v>3000</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="29">
+        <f>E9*F10*H10</f>
+        <v>-20.82</v>
+      </c>
       <c r="H10" s="6">
         <v>-2E-3</v>
       </c>
@@ -2282,12 +2330,16 @@
         <f>H10/8</f>
         <v>-2.5000000000000001E-4</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
+        <f>G10</f>
+        <v>-20.82</v>
+      </c>
+      <c r="K10" s="6">
         <v>-2E-3</v>
       </c>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="31"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="16" t="s">
         <v>19</v>
       </c>
@@ -2306,13 +2358,14 @@
       <c r="F11" s="16">
         <v>1100</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="16"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="J11" s="21"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="31"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="49"/>
@@ -2322,10 +2375,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="J12" s="21"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="31"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="43" t="s">
         <v>44</v>
       </c>
@@ -2339,8 +2393,9 @@
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
       <c r="K13" s="43"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="43"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="16" t="s">
         <v>34</v>
       </c>
@@ -2362,25 +2417,29 @@
       <c r="G14" s="16"/>
       <c r="H14" s="6"/>
       <c r="I14" s="21"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="J14" s="21"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="31"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="35">
+      <c r="C15" s="47">
         <v>41954</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="27">
         <v>27.55</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="24">
         <v>780</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="27">
+        <f>E14*F15*H15</f>
+        <v>8743.2072000000007</v>
+      </c>
       <c r="H15" s="9">
         <v>0.68600000000000005</v>
       </c>
@@ -2388,12 +2447,13 @@
         <f>H15/1258</f>
         <v>5.4531001589825127E-4</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="31" t="s">
+      <c r="J15" s="26"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="50">
@@ -2408,7 +2468,10 @@
       <c r="F16" s="24">
         <v>300</v>
       </c>
-      <c r="G16" s="24"/>
+      <c r="G16" s="27">
+        <f>E14*F16*H16</f>
+        <v>4156.8959999999997</v>
+      </c>
       <c r="H16" s="9">
         <v>0.84799999999999998</v>
       </c>
@@ -2416,14 +2479,18 @@
         <f>H16/1273</f>
         <v>6.6614296936370779E-4</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="28">
+        <f>G15+G16</f>
+        <v>12900.103200000001</v>
+      </c>
+      <c r="K16" s="9">
         <v>0.72070000000000001</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="L16" s="31" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
@@ -2433,10 +2500,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="21"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="31"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="J17" s="21"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="31"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="16" t="s">
         <v>40</v>
       </c>
@@ -2458,10 +2526,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="J18" s="21"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="31"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="35">
@@ -2479,10 +2548,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="21"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="J19" s="21"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="31"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="35">
@@ -2500,10 +2570,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="21"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="J20" s="21"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="31"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="35">
@@ -2521,10 +2592,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="21"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="J21" s="21"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="31"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="35">
@@ -2542,10 +2614,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="21"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="31"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="J22" s="21"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="31"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="35">
@@ -2563,10 +2636,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="31"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="J23" s="21"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="31"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="35">
@@ -2584,17 +2658,18 @@
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="21"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="1:11" s="46" customFormat="1">
+      <c r="J24" s="21"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="31"/>
+    </row>
+    <row r="25" spans="1:12" s="46" customFormat="1">
       <c r="A25" s="23"/>
       <c r="B25" s="23"/>
       <c r="C25" s="48">
         <v>41995</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E25" s="4">
         <v>10.4</v>
@@ -2602,7 +2677,10 @@
       <c r="F25" s="44">
         <v>1820</v>
       </c>
-      <c r="G25" s="44"/>
+      <c r="G25" s="4">
+        <f>E18*F25*H25</f>
+        <v>-16887.998399999997</v>
+      </c>
       <c r="H25" s="45">
         <v>-0.47149999999999997</v>
       </c>
@@ -2610,27 +2688,31 @@
         <f>H25/1463</f>
         <v>-3.22282980177717E-4</v>
       </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="38" t="s">
+      <c r="J25" s="6"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="35">
+      <c r="C26" s="47">
         <v>41995</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="15">
+      <c r="D26" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="27">
         <v>10.4</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="24">
         <v>300</v>
       </c>
-      <c r="G26" s="16"/>
+      <c r="G26" s="28">
+        <f>E19*F26*H26</f>
+        <v>396.00000000000006</v>
+      </c>
       <c r="H26" s="33">
         <f>(E26-E19)/E19</f>
         <v>0.14537444933920707</v>
@@ -2639,25 +2721,29 @@
         <f>H26/138</f>
         <v>1.0534380386899064E-3</v>
       </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="39"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="J26" s="26"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="39"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="35">
+      <c r="C27" s="50">
         <v>41995</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="15">
+      <c r="D27" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="27">
         <v>10.4</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="24">
         <v>200</v>
       </c>
-      <c r="G27" s="16"/>
+      <c r="G27" s="28">
+        <f>E20*F27*H27</f>
+        <v>244.00000000000011</v>
+      </c>
       <c r="H27" s="33">
         <f>(E27-E20)/E20</f>
         <v>0.13289760348583884</v>
@@ -2666,25 +2752,29 @@
         <f>H27/134</f>
         <v>9.9177316034208102E-4</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="39"/>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="J27" s="26"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="39"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
-      <c r="C28" s="35">
+      <c r="C28" s="50">
         <v>41995</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="15">
+      <c r="D28" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="27">
         <v>10.4</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="24">
         <v>300</v>
       </c>
-      <c r="G28" s="16"/>
+      <c r="G28" s="28">
+        <f>E21*F28*H28</f>
+        <v>540.00000000000023</v>
+      </c>
       <c r="H28" s="33">
         <f>(E28-E21)/E21</f>
         <v>0.20930232558139544</v>
@@ -2693,10 +2783,11 @@
         <f>H28/103</f>
         <v>2.0320614134116061E-3</v>
       </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="40"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="J28" s="26"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="40"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="35">
@@ -2714,12 +2805,13 @@
       <c r="G29" s="16"/>
       <c r="H29" s="32"/>
       <c r="I29" s="21"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="31" t="s">
+      <c r="J29" s="21"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="35">
@@ -2737,12 +2829,13 @@
       <c r="G30" s="16"/>
       <c r="H30" s="32"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="31" t="s">
+      <c r="J30" s="21"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
@@ -2752,10 +2845,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="21"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="31"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="J31" s="21"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="31"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="16" t="s">
         <v>42</v>
       </c>
@@ -2777,12 +2871,13 @@
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="21"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="31" t="s">
+      <c r="J32" s="21"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:12">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="35">
@@ -2800,12 +2895,13 @@
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
       <c r="I33" s="21"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="41" t="s">
+      <c r="J33" s="21"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="41" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:12">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="35">
@@ -2823,10 +2919,11 @@
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="21"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="40"/>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="J34" s="21"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="40"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="16"/>
       <c r="B35" s="16"/>
       <c r="C35" s="17"/>
@@ -2836,10 +2933,11 @@
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="21"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="31"/>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="J35" s="21"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="31"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="17"/>
@@ -2849,10 +2947,11 @@
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="21"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="31"/>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="J36" s="21"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="31"/>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="17"/>
@@ -2862,10 +2961,11 @@
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="21"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="31"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="J37" s="21"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="31"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="17"/>
@@ -2875,10 +2975,11 @@
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
       <c r="I38" s="21"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="31"/>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="J38" s="21"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="31"/>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="17"/>
@@ -2888,10 +2989,11 @@
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
       <c r="I39" s="21"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="31"/>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="J39" s="21"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="31"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="17"/>
@@ -2901,10 +3003,11 @@
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="21"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="31"/>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="J40" s="21"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="31"/>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="17"/>
@@ -2914,10 +3017,11 @@
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="21"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="31"/>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="J41" s="21"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="31"/>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="17"/>
@@ -2928,9 +3032,10 @@
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
       <c r="J42" s="16"/>
-      <c r="K42" s="31"/>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="K42" s="16"/>
+      <c r="L42" s="31"/>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="17"/>
@@ -2941,9 +3046,10 @@
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
       <c r="J43" s="16"/>
-      <c r="K43" s="31"/>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="K43" s="16"/>
+      <c r="L43" s="31"/>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="17"/>
@@ -2954,9 +3060,10 @@
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
       <c r="J44" s="16"/>
-      <c r="K44" s="31"/>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="K44" s="16"/>
+      <c r="L44" s="31"/>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="17"/>
@@ -2967,9 +3074,10 @@
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
       <c r="J45" s="16"/>
-      <c r="K45" s="31"/>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="K45" s="16"/>
+      <c r="L45" s="31"/>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="17"/>
@@ -2980,9 +3088,10 @@
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
       <c r="J46" s="16"/>
-      <c r="K46" s="31"/>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="K46" s="16"/>
+      <c r="L46" s="31"/>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="17"/>
@@ -2993,9 +3102,10 @@
       <c r="H47" s="16"/>
       <c r="I47" s="16"/>
       <c r="J47" s="16"/>
-      <c r="K47" s="31"/>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="K47" s="16"/>
+      <c r="L47" s="31"/>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="17"/>
@@ -3006,14 +3116,15 @@
       <c r="H48" s="16"/>
       <c r="I48" s="16"/>
       <c r="J48" s="16"/>
-      <c r="K48" s="31"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="K25:K28"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="L25:L28"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A13:L13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/investment/record.xlsx
+++ b/investment/record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="损益" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -544,9 +544,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="7" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -556,18 +553,12 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -699,6 +690,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -996,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1020,659 +1017,659 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="31" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="45">
         <v>42005</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="26">
         <v>160000</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>156424.13</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <f>D2-C2</f>
         <v>-3575.8699999999953</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <f>E2-F2</f>
         <v>-3575.8699999999953</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5">
         <f>E2/C2</f>
         <v>-2.2349187499999972E-2</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <f>G2/C2</f>
         <v>-2.2349187499999972E-2</v>
       </c>
-      <c r="M2" s="35">
+      <c r="M2" s="32">
         <v>42005</v>
       </c>
-      <c r="N2" s="52">
+      <c r="N2" s="49">
         <v>6.2020999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="36"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="36"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="36"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="44">
         <v>42005</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="52">
         <v>31148.33</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>31678.66</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="9">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="7">
         <f t="shared" ref="J6:J10" si="0">(D6-C6)/C6</f>
         <v>1.7025952916255801E-2</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="36"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="36"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="36"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="45">
         <v>42005</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="53">
         <f>C6*6.2743+C2</f>
         <v>355433.96691900003</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <f>D6*N2+D2</f>
         <v>352898.34718599997</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5">
         <f t="shared" si="0"/>
         <v>-7.1338700546250862E-3</v>
       </c>
-      <c r="K10" s="6"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="36"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="36"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="51"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="32">
         <v>42005</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13">
         <v>3234.68</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="32">
         <v>42005</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13">
         <v>11014.62</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="32">
         <v>42005</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13">
         <v>5461.19</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="32">
         <v>42005</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="16">
+      <c r="C26" s="14"/>
+      <c r="D26" s="13">
         <v>1471.76</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1">
-      <c r="A29" s="37"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="35">
+      <c r="B30" s="32">
         <v>42005</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="16">
+      <c r="C30" s="14"/>
+      <c r="D30" s="13">
         <v>17823.07</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1">
-      <c r="A31" s="37"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1">
-      <c r="A32" s="37"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="53">
+      <c r="B34" s="50">
         <v>42005</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="16">
+      <c r="C34" s="14"/>
+      <c r="D34" s="13">
         <v>4736.05</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="37"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="37"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="37"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="35">
+      <c r="B38" s="32">
         <v>42005</v>
       </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="5">
+      <c r="C38" s="49"/>
+      <c r="D38" s="4">
         <v>23605.040000000001</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="36"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="36"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="36"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1713,299 +1710,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="32">
         <v>42005</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="12">
         <v>160000</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="12">
         <v>0</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="12">
         <v>0</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="12">
         <f>C2-D2+E2</f>
         <v>160000</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="37"/>
-      <c r="B3" s="35">
+      <c r="A3" s="34"/>
+      <c r="B3" s="32">
         <v>42045</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>0</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="12">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>403.09</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="12">
         <f>F2+C3-D3+E3</f>
         <v>160403.09</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37"/>
-      <c r="B4" s="35">
+      <c r="A4" s="34"/>
+      <c r="B4" s="32">
         <v>42051</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>31000</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="12">
         <v>0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="12">
         <v>0</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="12">
         <f>F3+C4-D4+E4</f>
         <v>191403.09</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="28" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37"/>
-      <c r="B5" s="35">
+      <c r="A5" s="34"/>
+      <c r="B5" s="32">
         <v>42063</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>0</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>59.61</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="12">
         <f>F4+C5-D5+E5</f>
         <v>191462.69999999998</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="28" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37"/>
-      <c r="B6" s="35">
+      <c r="A6" s="34"/>
+      <c r="B6" s="32">
         <v>42068</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>7000</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>0</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>0</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="12">
         <f>F5+C6-D6+E6</f>
         <v>198462.69999999998</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="28" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="37"/>
-      <c r="B7" s="35">
+      <c r="A7" s="34"/>
+      <c r="B7" s="32">
         <v>42074</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>350000</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>0</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>0</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="12">
         <f>F6+C7-D7+E7</f>
         <v>548462.69999999995</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="28" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="37"/>
-      <c r="B8" s="35">
+      <c r="A8" s="34"/>
+      <c r="B8" s="32">
         <v>42074</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>14000</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>0</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>0</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="12">
         <f>F7+C8-D8+E8</f>
         <v>562462.69999999995</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="28" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="37"/>
-      <c r="B9" s="35">
+      <c r="A9" s="34"/>
+      <c r="B9" s="32">
         <v>42075</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>490000</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <v>0</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>0</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="12">
         <f>F8+C9-D9+E9</f>
         <v>1052462.7</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="28" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="37"/>
-      <c r="B10" s="35">
+      <c r="A10" s="34"/>
+      <c r="B10" s="32">
         <v>42076</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>1000</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>0</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>0</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="12">
         <f>F9+C10-D10+E10</f>
         <v>1053462.7</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="28" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="37"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="15">
+      <c r="A11" s="34"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="12">
         <v>0</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <v>0</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>0</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="32">
         <v>41639</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="15">
         <v>13684</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="15">
         <v>0</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="15">
         <v>0</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="15">
         <v>13684</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="37"/>
-      <c r="B13" s="35">
+      <c r="A13" s="34"/>
+      <c r="B13" s="32">
         <v>41992</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="15">
         <v>3071.25</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <v>0</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="15">
         <v>0</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="15">
         <f>F12+C13-D13+E13</f>
         <v>16755.25</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="37"/>
-      <c r="B14" s="35">
+      <c r="A14" s="34"/>
+      <c r="B14" s="32">
         <v>42004</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="15">
         <v>14393.08</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="15">
         <v>0</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="15">
         <v>0</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="15">
         <f>F13+C14-D14+E14</f>
         <v>31148.33</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2022,1102 +2019,1102 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9" style="12"/>
+    <col min="1" max="1" width="11.625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9" style="9"/>
     <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9" style="12"/>
-    <col min="7" max="7" width="12.125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="12" customWidth="1"/>
-    <col min="11" max="11" width="12.375" style="12" customWidth="1"/>
-    <col min="12" max="12" width="36" style="30" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="12"/>
+    <col min="4" max="6" width="9" style="9"/>
+    <col min="7" max="7" width="12.125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="9" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="36" style="27" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="32">
         <v>41981</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>9.9</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="13">
         <v>1000</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="31"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="47">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="44">
         <v>41985</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="24">
         <v>10.37</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="21">
         <v>1000</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="24">
         <f>E3*H4*F4</f>
         <v>449.46000000000004</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <f>H4/5</f>
         <v>9.0800000000000013E-3</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="24">
         <f>G4</f>
         <v>449.46000000000004</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="L4" s="31"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="32">
         <v>42003</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>7.11</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="13">
         <v>1600</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="31"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="47">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="44">
         <v>42011</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="24">
         <v>7.14</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <v>1600</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="24">
         <f>E5*F6*H6</f>
         <v>25.027200000000001</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <f>H6/9</f>
         <v>2.4444444444444448E-4</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="24">
         <f>G6</f>
         <v>25.027200000000001</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="7">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="L6" s="31"/>
+      <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="32">
         <v>41992</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>12.52</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="13">
         <v>800</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="31"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="47">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="44">
         <v>42003</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="25">
         <v>13.9</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="19">
         <v>800</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="25">
         <f>E7*F8*H8</f>
         <v>1081.7280000000001</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <v>0.108</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <f>H8/12</f>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="24">
         <f>G8</f>
         <v>1081.7280000000001</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <v>0.108</v>
       </c>
-      <c r="L8" s="31"/>
+      <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="32">
         <v>41985</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>3.47</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="13">
         <v>3000</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="31"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="48">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="45">
         <v>41992</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="26">
         <v>3.47</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="20">
         <v>3000</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="26">
         <f>E9*F10*H10</f>
         <v>-20.82</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>-2E-3</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f>H10/8</f>
         <v>-2.5000000000000001E-4</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <f>G10</f>
         <v>-20.82</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>-2E-3</v>
       </c>
-      <c r="L10" s="31"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="32">
         <v>42011</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>10.11</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="13">
         <v>1100</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="31"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="31"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="32">
         <v>40695</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <v>16.34</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="13">
         <v>1080</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="31"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="47">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="44">
         <v>41954</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="24">
         <v>27.55</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="21">
         <v>780</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="24">
         <f>E14*F15*H15</f>
         <v>8743.2072000000007</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="7">
         <v>0.68600000000000005</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="23">
         <f>H15/1258</f>
         <v>5.4531001589825127E-4</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="31" t="s">
+      <c r="J15" s="23"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="50">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="47">
         <v>41970</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="24">
         <v>30.2</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="21">
         <v>300</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="24">
         <f>E14*F16*H16</f>
         <v>4156.8959999999997</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="7">
         <v>0.84799999999999998</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="23">
         <f>H16/1273</f>
         <v>6.6614296936370779E-4</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="25">
         <f>G15+G16</f>
         <v>12900.103200000001</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="7">
         <v>0.72070000000000001</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="28" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="31"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="32">
         <v>40524</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="12">
         <v>19.68</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="13">
         <v>1820</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="31"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="28"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="35">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="32">
         <v>41858</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="12">
         <v>9.08</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="13">
         <v>300</v>
       </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="31"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="28"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="35">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="32">
         <v>41862</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="12">
         <v>9.18</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="13">
         <v>200</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="31"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="35">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="32">
         <v>41893</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="12">
         <v>8.6</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="13">
         <v>300</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="31"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="28"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="35">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="32">
         <v>41976</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="12">
         <v>10.63</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="13">
         <v>2200</v>
       </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="31"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="28"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="35">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="32">
         <v>41988</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="12">
         <v>9.98</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="13">
         <v>200</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="31"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="28"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="35">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="32">
         <v>41988</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="12">
         <v>9.9700000000000006</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="13">
         <v>600</v>
       </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="31"/>
-    </row>
-    <row r="25" spans="1:12" s="46" customFormat="1">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="48">
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="28"/>
+    </row>
+    <row r="25" spans="1:12" s="43" customFormat="1">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="45">
         <v>41995</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>10.4</v>
       </c>
-      <c r="F25" s="44">
+      <c r="F25" s="41">
         <v>1820</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <f>E18*F25*H25</f>
         <v>-16887.998399999997</v>
       </c>
-      <c r="H25" s="45">
+      <c r="H25" s="42">
         <v>-0.47149999999999997</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <f>H25/1463</f>
         <v>-3.22282980177717E-4</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="38" t="s">
+      <c r="J25" s="5"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="47">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="44">
         <v>41995</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="24">
         <v>10.4</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="21">
         <v>300</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="25">
         <f>E19*F26*H26</f>
         <v>396.00000000000006</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H26" s="30">
         <f>(E26-E19)/E19</f>
         <v>0.14537444933920707</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="23">
         <f>H26/138</f>
         <v>1.0534380386899064E-3</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="39"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="36"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="50">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="47">
         <v>41995</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="24">
         <v>10.4</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="21">
         <v>200</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="25">
         <f>E20*F27*H27</f>
         <v>244.00000000000011</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="30">
         <f>(E27-E20)/E20</f>
         <v>0.13289760348583884</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="23">
         <f>H27/134</f>
         <v>9.9177316034208102E-4</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="39"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="36"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="50">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="47">
         <v>41995</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="24">
         <v>10.4</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="21">
         <v>300</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="25">
         <f>E21*F28*H28</f>
         <v>540.00000000000023</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="30">
         <f>(E28-E21)/E21</f>
         <v>0.20930232558139544</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="23">
         <f>H28/103</f>
         <v>2.0320614134116061E-3</v>
       </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="40"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="37"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="35">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="32">
         <v>42039</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="12">
         <v>10.75</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="13">
         <v>2000</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="31" t="s">
+      <c r="G29" s="13"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="35">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="32">
         <v>42051</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="12">
         <v>10.51</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="13">
         <v>2000</v>
       </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="31" t="s">
+      <c r="G30" s="13"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="28" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="31"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="28"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="32">
         <v>41971</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="12">
         <v>12.47</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="13">
         <v>2000</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="31" t="s">
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="35">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="32">
         <v>41995</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="12">
         <v>12.99</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="13">
         <v>1200</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="41" t="s">
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="38" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="35">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="32">
         <v>41997</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="12">
         <v>12.02</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="13">
         <v>1800</v>
       </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="40"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="37"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="31"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="28"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="31"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="28"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="31"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="28"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="31"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="28"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="31"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="31"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="28"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="31"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="28"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="31"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="28"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="31"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="28"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="31"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="28"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="31"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="28"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="31"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="28"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="31"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="28"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="31"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/investment/record.xlsx
+++ b/investment/record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="损益" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,6 +331,10 @@
   </si>
   <si>
     <t>单股收益额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打新解冻一批</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,10 +638,49 @@
     <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -657,45 +700,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -993,7 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1058,10 +1062,10 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="37">
         <v>42005</v>
       </c>
       <c r="C2" s="26">
@@ -1094,12 +1098,12 @@
       <c r="M2" s="32">
         <v>42005</v>
       </c>
-      <c r="N2" s="49">
+      <c r="N2" s="40">
         <v>6.2020999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="33"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1112,7 +1116,7 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="33"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1125,7 +1129,7 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="33"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1138,13 +1142,13 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="36">
         <v>42005</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="43">
         <v>31148.33</v>
       </c>
       <c r="D6" s="6">
@@ -1162,7 +1166,7 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="33"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1175,7 +1179,7 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="33"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1188,7 +1192,7 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="33"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1201,13 +1205,13 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="37">
         <v>42005</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="44">
         <f>C6*6.2743+C2</f>
         <v>355433.96691900003</v>
       </c>
@@ -1227,7 +1231,7 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="33"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1240,7 +1244,7 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="33"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1253,7 +1257,7 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="48"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1266,7 +1270,7 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="45" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="32">
@@ -1285,7 +1289,7 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1">
-      <c r="A15" s="34"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="32"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1298,7 +1302,7 @@
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1">
-      <c r="A16" s="34"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="32"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -1311,7 +1315,7 @@
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1">
-      <c r="A17" s="34"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="32"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1324,7 +1328,7 @@
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="45" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="32">
@@ -1343,7 +1347,7 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1">
-      <c r="A19" s="34"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="32"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -1356,7 +1360,7 @@
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1">
-      <c r="A20" s="34"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="32"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1369,7 +1373,7 @@
       <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1">
-      <c r="A21" s="34"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="32"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -1382,7 +1386,7 @@
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="45" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="32">
@@ -1401,7 +1405,7 @@
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1">
-      <c r="A23" s="34"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="32"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -1414,7 +1418,7 @@
       <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1">
-      <c r="A24" s="34"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="32"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1427,7 +1431,7 @@
       <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1">
-      <c r="A25" s="34"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="32"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -1440,7 +1444,7 @@
       <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="45" t="s">
         <v>64</v>
       </c>
       <c r="B26" s="32">
@@ -1459,7 +1463,7 @@
       <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1">
-      <c r="A27" s="34"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="32"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -1472,7 +1476,7 @@
       <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1">
-      <c r="A28" s="34"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="32"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -1485,7 +1489,7 @@
       <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1">
-      <c r="A29" s="34"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="32"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -1498,7 +1502,7 @@
       <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="45" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="32">
@@ -1517,7 +1521,7 @@
       <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1">
-      <c r="A31" s="34"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="32"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -1530,7 +1534,7 @@
       <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1">
-      <c r="A32" s="34"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="32"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -1543,7 +1547,7 @@
       <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1">
-      <c r="A33" s="34"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="32"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -1556,10 +1560,10 @@
       <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="50">
+      <c r="B34" s="41">
         <v>42005</v>
       </c>
       <c r="C34" s="14"/>
@@ -1575,114 +1579,114 @@
       <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="34"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="34"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="34"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="46" t="s">
         <v>69</v>
       </c>
       <c r="B38" s="32">
         <v>42005</v>
       </c>
-      <c r="C38" s="49"/>
+      <c r="C38" s="40"/>
       <c r="D38" s="4">
         <v>23605.040000000001</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="33"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="33"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="33"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1692,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1733,7 +1737,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="32">
@@ -1755,7 +1759,7 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="34"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="32">
         <v>42045</v>
       </c>
@@ -1769,13 +1773,13 @@
         <v>403.09</v>
       </c>
       <c r="F3" s="12">
-        <f>F2+C3-D3+E3</f>
+        <f t="shared" ref="F3:F11" si="0">F2+C3-D3+E3</f>
         <v>160403.09</v>
       </c>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="34"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>42051</v>
       </c>
@@ -1789,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="12">
-        <f>F3+C4-D4+E4</f>
+        <f t="shared" si="0"/>
         <v>191403.09</v>
       </c>
       <c r="G4" s="28" t="s">
@@ -1797,7 +1801,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="34"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>42063</v>
       </c>
@@ -1811,7 +1815,7 @@
         <v>59.61</v>
       </c>
       <c r="F5" s="12">
-        <f>F4+C5-D5+E5</f>
+        <f t="shared" si="0"/>
         <v>191462.69999999998</v>
       </c>
       <c r="G5" s="28" t="s">
@@ -1819,7 +1823,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="34"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>42068</v>
       </c>
@@ -1833,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="12">
-        <f>F5+C6-D6+E6</f>
+        <f t="shared" si="0"/>
         <v>198462.69999999998</v>
       </c>
       <c r="G6" s="28" t="s">
@@ -1841,7 +1845,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="34"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>42074</v>
       </c>
@@ -1855,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="12">
-        <f>F6+C7-D7+E7</f>
+        <f t="shared" si="0"/>
         <v>548462.69999999995</v>
       </c>
       <c r="G7" s="28" t="s">
@@ -1863,7 +1867,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="34"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>42074</v>
       </c>
@@ -1877,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="12">
-        <f>F7+C8-D8+E8</f>
+        <f t="shared" si="0"/>
         <v>562462.69999999995</v>
       </c>
       <c r="G8" s="28" t="s">
@@ -1885,7 +1889,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="34"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>42075</v>
       </c>
@@ -1899,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="12">
-        <f>F8+C9-D9+E9</f>
+        <f t="shared" si="0"/>
         <v>1052462.7</v>
       </c>
       <c r="G9" s="28" t="s">
@@ -1907,7 +1911,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="34"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>42076</v>
       </c>
@@ -1921,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="12">
-        <f>F9+C10-D10+E10</f>
+        <f t="shared" si="0"/>
         <v>1053462.7</v>
       </c>
       <c r="G10" s="28" t="s">
@@ -1929,48 +1933,51 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="34"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="32">
+        <v>42079</v>
+      </c>
       <c r="C11" s="12">
         <v>0</v>
       </c>
       <c r="D11" s="12">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="F11" s="12">
+        <f t="shared" si="0"/>
+        <v>943462.7</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B13" s="32">
         <v>41639</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C13" s="15">
         <v>13684</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0</v>
-      </c>
-      <c r="F12" s="15">
-        <v>13684</v>
-      </c>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="34"/>
-      <c r="B13" s="32">
-        <v>41992</v>
-      </c>
-      <c r="C13" s="15">
-        <v>3071.25</v>
       </c>
       <c r="D13" s="15">
         <v>0</v>
@@ -1979,18 +1986,17 @@
         <v>0</v>
       </c>
       <c r="F13" s="15">
-        <f>F12+C13-D13+E13</f>
-        <v>16755.25</v>
+        <v>13684</v>
       </c>
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="34"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="32">
-        <v>42004</v>
+        <v>41992</v>
       </c>
       <c r="C14" s="15">
-        <v>14393.08</v>
+        <v>3071.25</v>
       </c>
       <c r="D14" s="15">
         <v>0</v>
@@ -2000,14 +2006,34 @@
       </c>
       <c r="F14" s="15">
         <f>F13+C14-D14+E14</f>
+        <v>16755.25</v>
+      </c>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="45"/>
+      <c r="B15" s="32">
+        <v>42004</v>
+      </c>
+      <c r="C15" s="15">
+        <v>14393.08</v>
+      </c>
+      <c r="D15" s="15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <f>F14+C15-D15+E15</f>
         <v>31148.33</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2077,20 +2103,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="13" t="s">
@@ -2121,7 +2147,7 @@
     <row r="4" spans="1:12">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="44">
+      <c r="C4" s="36">
         <v>41985</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -2182,7 +2208,7 @@
     <row r="6" spans="1:12">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="44">
+      <c r="C6" s="36">
         <v>42011</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -2243,7 +2269,7 @@
     <row r="8" spans="1:12">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="44">
+      <c r="C8" s="36">
         <v>42003</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -2304,7 +2330,7 @@
     <row r="10" spans="1:12">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="45">
+      <c r="C10" s="37">
         <v>41992</v>
       </c>
       <c r="D10" s="20" t="s">
@@ -2365,7 +2391,7 @@
     <row r="12" spans="1:12">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="46"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="11"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -2377,20 +2403,20 @@
       <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="13" t="s">
@@ -2421,7 +2447,7 @@
     <row r="15" spans="1:12">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="44">
+      <c r="C15" s="36">
         <v>41954</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -2453,7 +2479,7 @@
     <row r="16" spans="1:12">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="47">
+      <c r="C16" s="39">
         <v>41970</v>
       </c>
       <c r="D16" s="21" t="s">
@@ -2659,10 +2685,10 @@
       <c r="K24" s="13"/>
       <c r="L24" s="28"/>
     </row>
-    <row r="25" spans="1:12" s="43" customFormat="1">
+    <row r="25" spans="1:12" s="35" customFormat="1">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="45">
+      <c r="C25" s="37">
         <v>41995</v>
       </c>
       <c r="D25" s="20" t="s">
@@ -2671,14 +2697,14 @@
       <c r="E25" s="3">
         <v>10.4</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="33">
         <v>1820</v>
       </c>
       <c r="G25" s="3">
         <f>E18*F25*H25</f>
         <v>-16887.998399999997</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="34">
         <v>-0.47149999999999997</v>
       </c>
       <c r="I25" s="5">
@@ -2686,15 +2712,15 @@
         <v>-3.22282980177717E-4</v>
       </c>
       <c r="J25" s="5"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="35" t="s">
+      <c r="K25" s="33"/>
+      <c r="L25" s="48" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
-      <c r="C26" s="44">
+      <c r="C26" s="36">
         <v>41995</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -2720,12 +2746,12 @@
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="13"/>
-      <c r="L26" s="36"/>
+      <c r="L26" s="49"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="47">
+      <c r="C27" s="39">
         <v>41995</v>
       </c>
       <c r="D27" s="21" t="s">
@@ -2751,12 +2777,12 @@
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="13"/>
-      <c r="L27" s="36"/>
+      <c r="L27" s="49"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="47">
+      <c r="C28" s="39">
         <v>41995</v>
       </c>
       <c r="D28" s="21" t="s">
@@ -2782,7 +2808,7 @@
       </c>
       <c r="J28" s="23"/>
       <c r="K28" s="13"/>
-      <c r="L28" s="37"/>
+      <c r="L28" s="50"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="13"/>
@@ -2894,7 +2920,7 @@
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
       <c r="K33" s="13"/>
-      <c r="L33" s="38" t="s">
+      <c r="L33" s="51" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2918,7 +2944,7 @@
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
       <c r="K34" s="13"/>
-      <c r="L34" s="37"/>
+      <c r="L34" s="50"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="13"/>

--- a/investment/record.xlsx
+++ b/investment/record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,7 +334,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>打新解冻一批</t>
+    <t>第一批解冻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二批解冻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -674,13 +678,13 @@
     <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1062,7 +1066,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="37">
@@ -1103,7 +1107,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="46"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1116,7 +1120,7 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="46"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1129,7 +1133,7 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="46"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1142,7 +1146,7 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="45" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="36">
@@ -1166,7 +1170,7 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="46"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1179,7 +1183,7 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="46"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1192,7 +1196,7 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="46"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1205,7 +1209,7 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="37">
@@ -1231,7 +1235,7 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="46"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1244,7 +1248,7 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="46"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1257,7 +1261,7 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="47"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1270,7 +1274,7 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="47" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="32">
@@ -1289,7 +1293,7 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="32"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1302,7 +1306,7 @@
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1">
-      <c r="A16" s="45"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="32"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -1315,7 +1319,7 @@
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1">
-      <c r="A17" s="45"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="32"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1328,7 +1332,7 @@
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="32">
@@ -1347,7 +1351,7 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="32"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -1360,7 +1364,7 @@
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1">
-      <c r="A20" s="45"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="32"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1373,7 +1377,7 @@
       <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="32"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -1386,7 +1390,7 @@
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="32">
@@ -1405,7 +1409,7 @@
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1">
-      <c r="A23" s="45"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="32"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -1418,7 +1422,7 @@
       <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1">
-      <c r="A24" s="45"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="32"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1431,7 +1435,7 @@
       <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1">
-      <c r="A25" s="45"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="32"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -1444,7 +1448,7 @@
       <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="47" t="s">
         <v>64</v>
       </c>
       <c r="B26" s="32">
@@ -1463,7 +1467,7 @@
       <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1">
-      <c r="A27" s="45"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="32"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -1476,7 +1480,7 @@
       <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="32"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -1489,7 +1493,7 @@
       <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1">
-      <c r="A29" s="45"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="32"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -1502,7 +1506,7 @@
       <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="47" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="32">
@@ -1521,7 +1525,7 @@
       <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1">
-      <c r="A31" s="45"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="32"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -1534,7 +1538,7 @@
       <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="32"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -1547,7 +1551,7 @@
       <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="32"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -1560,7 +1564,7 @@
       <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="47" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="41">
@@ -1579,7 +1583,7 @@
       <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="45"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="42"/>
       <c r="C35" s="40"/>
       <c r="D35" s="40"/>
@@ -1592,7 +1596,7 @@
       <c r="K35" s="40"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="45"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="42"/>
       <c r="C36" s="40"/>
       <c r="D36" s="40"/>
@@ -1605,7 +1609,7 @@
       <c r="K36" s="40"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="45"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
@@ -1618,7 +1622,7 @@
       <c r="K37" s="40"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="45" t="s">
         <v>69</v>
       </c>
       <c r="B38" s="32">
@@ -1637,7 +1641,7 @@
       <c r="K38" s="40"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="46"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
@@ -1650,7 +1654,7 @@
       <c r="K39" s="40"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="46"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
@@ -1663,7 +1667,7 @@
       <c r="K40" s="40"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="46"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
       <c r="D41" s="40"/>
@@ -1677,16 +1681,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1696,10 +1700,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1737,7 +1741,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="32">
@@ -1759,7 +1763,7 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="45"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="32">
         <v>42045</v>
       </c>
@@ -1773,13 +1777,13 @@
         <v>403.09</v>
       </c>
       <c r="F3" s="12">
-        <f t="shared" ref="F3:F11" si="0">F2+C3-D3+E3</f>
+        <f t="shared" ref="F3:F12" si="0">F2+C3-D3+E3</f>
         <v>160403.09</v>
       </c>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="32">
         <v>42051</v>
       </c>
@@ -1801,7 +1805,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="32">
         <v>42063</v>
       </c>
@@ -1823,7 +1827,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="32">
         <v>42068</v>
       </c>
@@ -1845,7 +1849,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="32">
         <v>42074</v>
       </c>
@@ -1867,7 +1871,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="32">
         <v>42074</v>
       </c>
@@ -1889,7 +1893,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="45"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="32">
         <v>42075</v>
       </c>
@@ -1911,7 +1915,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="32">
         <v>42076</v>
       </c>
@@ -1933,7 +1937,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="32">
         <v>42079</v>
       </c>
@@ -1955,68 +1959,70 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="45"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="32">
+        <v>42080</v>
+      </c>
       <c r="C12" s="12">
         <v>0</v>
       </c>
       <c r="D12" s="12">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="E12" s="12">
         <v>0</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
+        <v>443462.69999999995</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B14" s="32">
         <v>41639</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C14" s="15">
         <v>13684</v>
       </c>
-      <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
         <v>13684</v>
       </c>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="45"/>
-      <c r="B14" s="32">
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="47"/>
+      <c r="B15" s="32">
         <v>41992</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C15" s="15">
         <v>3071.25</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
-        <f>F13+C14-D14+E14</f>
-        <v>16755.25</v>
-      </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="45"/>
-      <c r="B15" s="32">
-        <v>42004</v>
-      </c>
-      <c r="C15" s="15">
-        <v>14393.08</v>
       </c>
       <c r="D15" s="15">
         <v>0</v>
@@ -2026,14 +2032,34 @@
       </c>
       <c r="F15" s="15">
         <f>F14+C15-D15+E15</f>
+        <v>16755.25</v>
+      </c>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="47"/>
+      <c r="B16" s="32">
+        <v>42004</v>
+      </c>
+      <c r="C16" s="15">
+        <v>14393.08</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <f>F15+C16-D16+E16</f>
         <v>31148.33</v>
       </c>
-      <c r="G15" s="14"/>
+      <c r="G16" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/investment/record.xlsx
+++ b/investment/record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +339,14 @@
   </si>
   <si>
     <t>第二批解冻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三批解冻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打新补充资金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -678,13 +686,13 @@
     <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1066,7 +1074,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="37">
@@ -1107,7 +1115,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1120,7 +1128,7 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1133,7 +1141,7 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1146,7 +1154,7 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="36">
@@ -1170,7 +1178,7 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1183,7 +1191,7 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1196,7 +1204,7 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1209,7 +1217,7 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="37">
@@ -1235,7 +1243,7 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1248,7 +1256,7 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1261,7 +1269,7 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1274,7 +1282,7 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="45" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="32">
@@ -1293,7 +1301,7 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1">
-      <c r="A15" s="47"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="32"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1306,7 +1314,7 @@
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1">
-      <c r="A16" s="47"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="32"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -1319,7 +1327,7 @@
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1">
-      <c r="A17" s="47"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="32"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1332,7 +1340,7 @@
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="45" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="32">
@@ -1351,7 +1359,7 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1">
-      <c r="A19" s="47"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="32"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -1364,7 +1372,7 @@
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1">
-      <c r="A20" s="47"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="32"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1377,7 +1385,7 @@
       <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1">
-      <c r="A21" s="47"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="32"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -1390,7 +1398,7 @@
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="45" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="32">
@@ -1409,7 +1417,7 @@
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1">
-      <c r="A23" s="47"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="32"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -1422,7 +1430,7 @@
       <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1">
-      <c r="A24" s="47"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="32"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1435,7 +1443,7 @@
       <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1">
-      <c r="A25" s="47"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="32"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -1448,7 +1456,7 @@
       <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="45" t="s">
         <v>64</v>
       </c>
       <c r="B26" s="32">
@@ -1467,7 +1475,7 @@
       <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1">
-      <c r="A27" s="47"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="32"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -1480,7 +1488,7 @@
       <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1">
-      <c r="A28" s="47"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="32"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -1493,7 +1501,7 @@
       <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1">
-      <c r="A29" s="47"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="32"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -1506,7 +1514,7 @@
       <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="45" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="32">
@@ -1525,7 +1533,7 @@
       <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1">
-      <c r="A31" s="47"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="32"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -1538,7 +1546,7 @@
       <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1">
-      <c r="A32" s="47"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="32"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -1551,7 +1559,7 @@
       <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1">
-      <c r="A33" s="47"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="32"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -1564,7 +1572,7 @@
       <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="45" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="41">
@@ -1583,7 +1591,7 @@
       <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="47"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="42"/>
       <c r="C35" s="40"/>
       <c r="D35" s="40"/>
@@ -1596,7 +1604,7 @@
       <c r="K35" s="40"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="47"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="42"/>
       <c r="C36" s="40"/>
       <c r="D36" s="40"/>
@@ -1609,7 +1617,7 @@
       <c r="K36" s="40"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="47"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
@@ -1622,7 +1630,7 @@
       <c r="K37" s="40"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="46" t="s">
         <v>69</v>
       </c>
       <c r="B38" s="32">
@@ -1641,7 +1649,7 @@
       <c r="K38" s="40"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="45"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
@@ -1654,7 +1662,7 @@
       <c r="K39" s="40"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="45"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
@@ -1667,7 +1675,7 @@
       <c r="K40" s="40"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="45"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
       <c r="D41" s="40"/>
@@ -1681,16 +1689,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1700,10 +1708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1741,7 +1749,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="32">
@@ -1763,7 +1771,7 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="47"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="32">
         <v>42045</v>
       </c>
@@ -1777,13 +1785,13 @@
         <v>403.09</v>
       </c>
       <c r="F3" s="12">
-        <f t="shared" ref="F3:F12" si="0">F2+C3-D3+E3</f>
+        <f t="shared" ref="F3:F14" si="0">F2+C3-D3+E3</f>
         <v>160403.09</v>
       </c>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="47"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>42051</v>
       </c>
@@ -1805,7 +1813,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="47"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>42063</v>
       </c>
@@ -1827,7 +1835,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="47"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>42068</v>
       </c>
@@ -1849,7 +1857,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="47"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>42074</v>
       </c>
@@ -1871,7 +1879,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="47"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>42074</v>
       </c>
@@ -1893,7 +1901,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="47"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>42075</v>
       </c>
@@ -1915,7 +1923,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="47"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>42076</v>
       </c>
@@ -1937,7 +1945,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="47"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>42079</v>
       </c>
@@ -1959,7 +1967,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="47"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>42080</v>
       </c>
@@ -1981,85 +1989,129 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="47"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="32">
+        <v>42081</v>
+      </c>
       <c r="C13" s="12">
         <v>0</v>
       </c>
       <c r="D13" s="12">
-        <v>0</v>
+        <v>170000</v>
       </c>
       <c r="E13" s="12">
         <v>0</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="F13" s="12">
+        <f t="shared" si="0"/>
+        <v>273462.69999999995</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="32">
+        <v>42081</v>
+      </c>
+      <c r="C14" s="12">
+        <v>40000</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <f t="shared" si="0"/>
+        <v>313462.69999999995</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="45"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B16" s="32">
         <v>41639</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C16" s="15">
         <v>13684</v>
       </c>
-      <c r="D14" s="15">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
+      <c r="D16" s="15">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
         <v>13684</v>
       </c>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="47"/>
-      <c r="B15" s="32">
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="45"/>
+      <c r="B17" s="32">
         <v>41992</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C17" s="15">
         <v>3071.25</v>
       </c>
-      <c r="D15" s="15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="15">
-        <f>F14+C15-D15+E15</f>
+      <c r="D17" s="15">
+        <v>0</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
+        <f>F16+C17-D17+E17</f>
         <v>16755.25</v>
       </c>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="47"/>
-      <c r="B16" s="32">
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="45"/>
+      <c r="B18" s="32">
         <v>42004</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C18" s="15">
         <v>14393.08</v>
       </c>
-      <c r="D16" s="15">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15">
-        <f>F15+C16-D16+E16</f>
+      <c r="D18" s="15">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <f>F17+C18-D18+E18</f>
         <v>31148.33</v>
       </c>
-      <c r="G16" s="14"/>
+      <c r="G18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/investment/record.xlsx
+++ b/investment/record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="损益" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +347,34 @@
   </si>
   <si>
     <t>打新补充资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ-002236</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大华股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>估值合理，连续下跌后横盘整理较长时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ-002482</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广田股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>估值合理，长期试探建仓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,13 +714,13 @@
     <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1074,7 +1102,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="37">
@@ -1115,7 +1143,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="46"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1128,7 +1156,7 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="46"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1141,7 +1169,7 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="46"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1154,7 +1182,7 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="45" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="36">
@@ -1178,7 +1206,7 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="46"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1191,7 +1219,7 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="46"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1204,7 +1232,7 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="46"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1217,7 +1245,7 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="45" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="37">
@@ -1243,7 +1271,7 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="46"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1256,7 +1284,7 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="46"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1269,7 +1297,7 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="47"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1282,7 +1310,7 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="47" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="32">
@@ -1301,7 +1329,7 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="32"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1314,7 +1342,7 @@
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1">
-      <c r="A16" s="45"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="32"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -1327,7 +1355,7 @@
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1">
-      <c r="A17" s="45"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="32"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1340,7 +1368,7 @@
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="47" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="32">
@@ -1359,7 +1387,7 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="32"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -1372,7 +1400,7 @@
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1">
-      <c r="A20" s="45"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="32"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1385,7 +1413,7 @@
       <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="32"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -1398,7 +1426,7 @@
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="47" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="32">
@@ -1417,7 +1445,7 @@
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1">
-      <c r="A23" s="45"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="32"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -1430,7 +1458,7 @@
       <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1">
-      <c r="A24" s="45"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="32"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1443,7 +1471,7 @@
       <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1">
-      <c r="A25" s="45"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="32"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -1456,7 +1484,7 @@
       <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="47" t="s">
         <v>64</v>
       </c>
       <c r="B26" s="32">
@@ -1475,7 +1503,7 @@
       <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1">
-      <c r="A27" s="45"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="32"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -1488,7 +1516,7 @@
       <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="32"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -1501,7 +1529,7 @@
       <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1">
-      <c r="A29" s="45"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="32"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -1514,7 +1542,7 @@
       <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="47" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="32">
@@ -1533,7 +1561,7 @@
       <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1">
-      <c r="A31" s="45"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="32"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -1546,7 +1574,7 @@
       <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="32"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -1559,7 +1587,7 @@
       <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="32"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -1572,7 +1600,7 @@
       <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="47" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="41">
@@ -1591,7 +1619,7 @@
       <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="45"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="42"/>
       <c r="C35" s="40"/>
       <c r="D35" s="40"/>
@@ -1604,7 +1632,7 @@
       <c r="K35" s="40"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="45"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="42"/>
       <c r="C36" s="40"/>
       <c r="D36" s="40"/>
@@ -1617,7 +1645,7 @@
       <c r="K36" s="40"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="45"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
@@ -1630,7 +1658,7 @@
       <c r="K37" s="40"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="45" t="s">
         <v>69</v>
       </c>
       <c r="B38" s="32">
@@ -1649,7 +1677,7 @@
       <c r="K38" s="40"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="46"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
@@ -1662,7 +1690,7 @@
       <c r="K39" s="40"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="46"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
@@ -1675,7 +1703,7 @@
       <c r="K40" s="40"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="46"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
       <c r="D41" s="40"/>
@@ -1689,16 +1717,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1710,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1749,7 +1777,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="32">
@@ -1771,7 +1799,7 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="45"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="32">
         <v>42045</v>
       </c>
@@ -1791,7 +1819,7 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="45"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="32">
         <v>42051</v>
       </c>
@@ -1813,7 +1841,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="45"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="32">
         <v>42063</v>
       </c>
@@ -1835,7 +1863,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="45"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="32">
         <v>42068</v>
       </c>
@@ -1857,7 +1885,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="45"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="32">
         <v>42074</v>
       </c>
@@ -1879,7 +1907,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="32">
         <v>42074</v>
       </c>
@@ -1901,7 +1929,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="45"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="32">
         <v>42075</v>
       </c>
@@ -1923,7 +1951,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="45"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="32">
         <v>42076</v>
       </c>
@@ -1945,7 +1973,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="45"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="32">
         <v>42079</v>
       </c>
@@ -1967,7 +1995,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="45"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="32">
         <v>42080</v>
       </c>
@@ -1989,7 +2017,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="45"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="32">
         <v>42081</v>
       </c>
@@ -2011,7 +2039,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="45"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="32">
         <v>42081</v>
       </c>
@@ -2033,7 +2061,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="45"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="32"/>
       <c r="C15" s="12">
         <v>0</v>
@@ -2048,7 +2076,7 @@
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="47" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="32">
@@ -2069,7 +2097,7 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="45"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="32">
         <v>41992</v>
       </c>
@@ -2089,7 +2117,7 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="45"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="32">
         <v>42004</v>
       </c>
@@ -2123,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -3039,23 +3067,37 @@
       <c r="L35" s="28"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="A36" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="32">
+        <v>42052</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="13">
+        <v>28.07</v>
+      </c>
+      <c r="F36" s="13">
+        <v>600</v>
+      </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
       <c r="K36" s="13"/>
-      <c r="L36" s="28"/>
+      <c r="L36" s="28" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -3067,18 +3109,32 @@
       <c r="L37" s="28"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+      <c r="A38" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="32">
+        <v>42051</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="13">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="F38" s="13">
+        <v>1200</v>
+      </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
       <c r="K38" s="13"/>
-      <c r="L38" s="28"/>
+      <c r="L38" s="28" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="13"/>

--- a/investment/record.xlsx
+++ b/investment/record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="损益" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,10 @@
   </si>
   <si>
     <t>估值合理，长期试探建仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打新解冻和还贷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,13 +718,13 @@
     <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1102,7 +1106,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="37">
@@ -1143,7 +1147,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1156,7 +1160,7 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1169,7 +1173,7 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1182,7 +1186,7 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="36">
@@ -1206,7 +1210,7 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1219,7 +1223,7 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1232,7 +1236,7 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1245,7 +1249,7 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="37">
@@ -1271,7 +1275,7 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1284,7 +1288,7 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1297,7 +1301,7 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1310,7 +1314,7 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="45" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="32">
@@ -1329,7 +1333,7 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1">
-      <c r="A15" s="47"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="32"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1342,7 +1346,7 @@
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1">
-      <c r="A16" s="47"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="32"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -1355,7 +1359,7 @@
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1">
-      <c r="A17" s="47"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="32"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1368,7 +1372,7 @@
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="45" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="32">
@@ -1387,7 +1391,7 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1">
-      <c r="A19" s="47"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="32"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -1400,7 +1404,7 @@
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1">
-      <c r="A20" s="47"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="32"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1413,7 +1417,7 @@
       <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1">
-      <c r="A21" s="47"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="32"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -1426,7 +1430,7 @@
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="45" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="32">
@@ -1445,7 +1449,7 @@
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1">
-      <c r="A23" s="47"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="32"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -1458,7 +1462,7 @@
       <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1">
-      <c r="A24" s="47"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="32"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1471,7 +1475,7 @@
       <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1">
-      <c r="A25" s="47"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="32"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -1484,7 +1488,7 @@
       <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="45" t="s">
         <v>64</v>
       </c>
       <c r="B26" s="32">
@@ -1503,7 +1507,7 @@
       <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1">
-      <c r="A27" s="47"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="32"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -1516,7 +1520,7 @@
       <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1">
-      <c r="A28" s="47"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="32"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -1529,7 +1533,7 @@
       <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1">
-      <c r="A29" s="47"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="32"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -1542,7 +1546,7 @@
       <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="45" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="32">
@@ -1561,7 +1565,7 @@
       <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1">
-      <c r="A31" s="47"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="32"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -1574,7 +1578,7 @@
       <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1">
-      <c r="A32" s="47"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="32"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -1587,7 +1591,7 @@
       <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1">
-      <c r="A33" s="47"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="32"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -1600,7 +1604,7 @@
       <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="45" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="41">
@@ -1619,7 +1623,7 @@
       <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="47"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="42"/>
       <c r="C35" s="40"/>
       <c r="D35" s="40"/>
@@ -1632,7 +1636,7 @@
       <c r="K35" s="40"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="47"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="42"/>
       <c r="C36" s="40"/>
       <c r="D36" s="40"/>
@@ -1645,7 +1649,7 @@
       <c r="K36" s="40"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="47"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
@@ -1658,7 +1662,7 @@
       <c r="K37" s="40"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="46" t="s">
         <v>69</v>
       </c>
       <c r="B38" s="32">
@@ -1677,7 +1681,7 @@
       <c r="K38" s="40"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="45"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
       <c r="D39" s="40"/>
@@ -1690,7 +1694,7 @@
       <c r="K39" s="40"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="45"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
@@ -1703,7 +1707,7 @@
       <c r="K40" s="40"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="45"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
       <c r="D41" s="40"/>
@@ -1717,16 +1721,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1736,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1777,7 +1781,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="32">
@@ -1799,7 +1803,7 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="47"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="32">
         <v>42045</v>
       </c>
@@ -1813,13 +1817,13 @@
         <v>403.09</v>
       </c>
       <c r="F3" s="12">
-        <f t="shared" ref="F3:F14" si="0">F2+C3-D3+E3</f>
+        <f t="shared" ref="F3:F15" si="0">F2+C3-D3+E3</f>
         <v>160403.09</v>
       </c>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="47"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="32">
         <v>42051</v>
       </c>
@@ -1841,7 +1845,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="47"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="32">
         <v>42063</v>
       </c>
@@ -1863,7 +1867,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="47"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="32">
         <v>42068</v>
       </c>
@@ -1885,7 +1889,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="47"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="32">
         <v>42074</v>
       </c>
@@ -1907,7 +1911,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="47"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="32">
         <v>42074</v>
       </c>
@@ -1929,7 +1933,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="47"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="32">
         <v>42075</v>
       </c>
@@ -1951,7 +1955,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="47"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="32">
         <v>42076</v>
       </c>
@@ -1973,7 +1977,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="47"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="32">
         <v>42079</v>
       </c>
@@ -1995,7 +1999,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="47"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="32">
         <v>42080</v>
       </c>
@@ -2017,7 +2021,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="47"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="32">
         <v>42081</v>
       </c>
@@ -2039,7 +2043,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="47"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="32">
         <v>42081</v>
       </c>
@@ -2061,68 +2065,70 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="47"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="32">
+        <v>42086</v>
+      </c>
       <c r="C15" s="12">
         <v>0</v>
       </c>
       <c r="D15" s="12">
-        <v>0</v>
+        <v>102000</v>
       </c>
       <c r="E15" s="12">
         <v>0</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="F15" s="12">
+        <f t="shared" si="0"/>
+        <v>211462.69999999995</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B17" s="32">
         <v>41639</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C17" s="15">
         <v>13684</v>
       </c>
-      <c r="D16" s="15">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0</v>
-      </c>
-      <c r="F16" s="15">
+      <c r="D17" s="15">
+        <v>0</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
         <v>13684</v>
       </c>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="47"/>
-      <c r="B17" s="32">
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="45"/>
+      <c r="B18" s="32">
         <v>41992</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C18" s="15">
         <v>3071.25</v>
-      </c>
-      <c r="D17" s="15">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15">
-        <f>F16+C17-D17+E17</f>
-        <v>16755.25</v>
-      </c>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="47"/>
-      <c r="B18" s="32">
-        <v>42004</v>
-      </c>
-      <c r="C18" s="15">
-        <v>14393.08</v>
       </c>
       <c r="D18" s="15">
         <v>0</v>
@@ -2132,14 +2138,34 @@
       </c>
       <c r="F18" s="15">
         <f>F17+C18-D18+E18</f>
+        <v>16755.25</v>
+      </c>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="45"/>
+      <c r="B19" s="32">
+        <v>42004</v>
+      </c>
+      <c r="C19" s="15">
+        <v>14393.08</v>
+      </c>
+      <c r="D19" s="15">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15">
+        <f>F18+C19-D19+E19</f>
         <v>31148.33</v>
       </c>
-      <c r="G18" s="14"/>
+      <c r="G19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2151,7 +2177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>

--- a/investment/record.xlsx
+++ b/investment/record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="损益" sheetId="1" r:id="rId1"/>
@@ -242,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>资产收益率（ROE）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>打新融资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,6 +375,10 @@
   </si>
   <si>
     <t>打新解冻和还贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产收益率（ROA）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,97 +634,97 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1041,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1074,17 +1074,17 @@
       <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>75</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>76</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>2</v>
@@ -1092,27 +1092,27 @@
       <c r="I1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="31" t="s">
+      <c r="J1" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="M1" s="30" t="s">
         <v>70</v>
       </c>
+      <c r="N1" s="30" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="36">
         <v>42005</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <v>160000</v>
       </c>
       <c r="D2" s="3">
@@ -1139,15 +1139,15 @@
         <f>G2/C2</f>
         <v>-2.2349187499999972E-2</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="31">
         <v>42005</v>
       </c>
-      <c r="N2" s="40">
+      <c r="N2" s="39">
         <v>6.2020999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="46"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1160,7 +1160,7 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="46"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1173,7 +1173,7 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="46"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1186,13 +1186,13 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <v>42005</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="42">
         <v>31148.33</v>
       </c>
       <c r="D6" s="6">
@@ -1210,7 +1210,7 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="46"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1223,7 +1223,7 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="46"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1236,7 +1236,7 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="46"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1249,13 +1249,13 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>42005</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="43">
         <f>C6*6.2743+C2</f>
         <v>355433.96691900003</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="46"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1288,7 +1288,7 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="46"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1301,7 +1301,7 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="47"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1314,10 +1314,10 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1">
-      <c r="A14" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="32">
+      <c r="A14" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="31">
         <v>42005</v>
       </c>
       <c r="C14" s="13"/>
@@ -1333,8 +1333,8 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -1346,8 +1346,8 @@
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -1359,8 +1359,8 @@
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -1372,10 +1372,10 @@
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1">
-      <c r="A18" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="32">
+      <c r="A18" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="31">
         <v>42005</v>
       </c>
       <c r="C18" s="13"/>
@@ -1391,8 +1391,8 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="32"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -1404,21 +1404,21 @@
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
-      <c r="H20" s="28"/>
+      <c r="H20" s="27"/>
       <c r="I20" s="13"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -1430,10 +1430,10 @@
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1">
-      <c r="A22" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="32">
+      <c r="A22" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="31">
         <v>42005</v>
       </c>
       <c r="C22" s="13"/>
@@ -1449,8 +1449,8 @@
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1">
-      <c r="A23" s="45"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
@@ -1462,8 +1462,8 @@
       <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -1475,8 +1475,8 @@
       <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -1488,10 +1488,10 @@
       <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1">
-      <c r="A26" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="32">
+      <c r="A26" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="31">
         <v>42005</v>
       </c>
       <c r="C26" s="14"/>
@@ -1507,8 +1507,8 @@
       <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1">
-      <c r="A27" s="45"/>
-      <c r="B27" s="32"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -1520,8 +1520,8 @@
       <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -1533,8 +1533,8 @@
       <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1">
-      <c r="A29" s="45"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -1546,10 +1546,10 @@
       <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1">
-      <c r="A30" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="32">
+      <c r="A30" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="31">
         <v>42005</v>
       </c>
       <c r="C30" s="14"/>
@@ -1565,8 +1565,8 @@
       <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1">
-      <c r="A31" s="45"/>
-      <c r="B31" s="32"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -1578,8 +1578,8 @@
       <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1">
-      <c r="A32" s="45"/>
-      <c r="B32" s="32"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
@@ -1591,8 +1591,8 @@
       <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1">
-      <c r="A33" s="45"/>
-      <c r="B33" s="32"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
@@ -1604,10 +1604,10 @@
       <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1">
-      <c r="A34" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="41">
+      <c r="A34" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="40">
         <v>42005</v>
       </c>
       <c r="C34" s="14"/>
@@ -1623,114 +1623,114 @@
       <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="45"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="45"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="45"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="32">
+      <c r="A38" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="31">
         <v>42005</v>
       </c>
-      <c r="C38" s="40"/>
+      <c r="C38" s="39"/>
       <c r="D38" s="4">
         <v>23605.040000000001</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="46"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="46"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="46"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1742,7 +1742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1761,7 +1761,7 @@
       <c r="A1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="16" t="s">
@@ -1781,10 +1781,10 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="31">
         <v>42005</v>
       </c>
       <c r="C2" s="12">
@@ -1803,8 +1803,8 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="45"/>
-      <c r="B3" s="32">
+      <c r="A3" s="47"/>
+      <c r="B3" s="31">
         <v>42045</v>
       </c>
       <c r="C3" s="12">
@@ -1823,8 +1823,8 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="45"/>
-      <c r="B4" s="32">
+      <c r="A4" s="47"/>
+      <c r="B4" s="31">
         <v>42051</v>
       </c>
       <c r="C4" s="12">
@@ -1840,13 +1840,13 @@
         <f t="shared" si="0"/>
         <v>191403.09</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="45"/>
-      <c r="B5" s="32">
+      <c r="A5" s="47"/>
+      <c r="B5" s="31">
         <v>42063</v>
       </c>
       <c r="C5" s="12">
@@ -1862,13 +1862,13 @@
         <f t="shared" si="0"/>
         <v>191462.69999999998</v>
       </c>
-      <c r="G5" s="28" t="s">
-        <v>59</v>
+      <c r="G5" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="45"/>
-      <c r="B6" s="32">
+      <c r="A6" s="47"/>
+      <c r="B6" s="31">
         <v>42068</v>
       </c>
       <c r="C6" s="12">
@@ -1884,13 +1884,13 @@
         <f t="shared" si="0"/>
         <v>198462.69999999998</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="27" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="45"/>
-      <c r="B7" s="32">
+      <c r="A7" s="47"/>
+      <c r="B7" s="31">
         <v>42074</v>
       </c>
       <c r="C7" s="12">
@@ -1906,13 +1906,13 @@
         <f t="shared" si="0"/>
         <v>548462.69999999995</v>
       </c>
-      <c r="G7" s="28" t="s">
-        <v>57</v>
+      <c r="G7" s="27" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="45"/>
-      <c r="B8" s="32">
+      <c r="A8" s="47"/>
+      <c r="B8" s="31">
         <v>42074</v>
       </c>
       <c r="C8" s="12">
@@ -1928,13 +1928,13 @@
         <f t="shared" si="0"/>
         <v>562462.69999999995</v>
       </c>
-      <c r="G8" s="28" t="s">
-        <v>58</v>
+      <c r="G8" s="27" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="45"/>
-      <c r="B9" s="32">
+      <c r="A9" s="47"/>
+      <c r="B9" s="31">
         <v>42075</v>
       </c>
       <c r="C9" s="12">
@@ -1950,13 +1950,13 @@
         <f t="shared" si="0"/>
         <v>1052462.7</v>
       </c>
-      <c r="G9" s="28" t="s">
-        <v>57</v>
+      <c r="G9" s="27" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="45"/>
-      <c r="B10" s="32">
+      <c r="A10" s="47"/>
+      <c r="B10" s="31">
         <v>42076</v>
       </c>
       <c r="C10" s="12">
@@ -1972,13 +1972,13 @@
         <f t="shared" si="0"/>
         <v>1053462.7</v>
       </c>
-      <c r="G10" s="28" t="s">
-        <v>60</v>
+      <c r="G10" s="27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="45"/>
-      <c r="B11" s="32">
+      <c r="A11" s="47"/>
+      <c r="B11" s="31">
         <v>42079</v>
       </c>
       <c r="C11" s="12">
@@ -1994,13 +1994,13 @@
         <f t="shared" si="0"/>
         <v>943462.7</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>79</v>
+      <c r="G11" s="27" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="45"/>
-      <c r="B12" s="32">
+      <c r="A12" s="47"/>
+      <c r="B12" s="31">
         <v>42080</v>
       </c>
       <c r="C12" s="12">
@@ -2016,13 +2016,13 @@
         <f t="shared" si="0"/>
         <v>443462.69999999995</v>
       </c>
-      <c r="G12" s="28" t="s">
-        <v>80</v>
+      <c r="G12" s="27" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="45"/>
-      <c r="B13" s="32">
+      <c r="A13" s="47"/>
+      <c r="B13" s="31">
         <v>42081</v>
       </c>
       <c r="C13" s="12">
@@ -2038,13 +2038,13 @@
         <f t="shared" si="0"/>
         <v>273462.69999999995</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>81</v>
+      <c r="G13" s="27" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="45"/>
-      <c r="B14" s="32">
+      <c r="A14" s="47"/>
+      <c r="B14" s="31">
         <v>42081</v>
       </c>
       <c r="C14" s="12">
@@ -2060,13 +2060,13 @@
         <f t="shared" si="0"/>
         <v>313462.69999999995</v>
       </c>
-      <c r="G14" s="28" t="s">
-        <v>82</v>
+      <c r="G14" s="27" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="45"/>
-      <c r="B15" s="32">
+      <c r="A15" s="47"/>
+      <c r="B15" s="31">
         <v>42086</v>
       </c>
       <c r="C15" s="12">
@@ -2082,13 +2082,13 @@
         <f t="shared" si="0"/>
         <v>211462.69999999995</v>
       </c>
-      <c r="G15" s="28" t="s">
-        <v>90</v>
+      <c r="G15" s="27" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="45"/>
-      <c r="B16" s="32"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="12">
         <v>0</v>
       </c>
@@ -2102,10 +2102,10 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="31">
         <v>41639</v>
       </c>
       <c r="C17" s="15">
@@ -2123,8 +2123,8 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="45"/>
-      <c r="B18" s="32">
+      <c r="A18" s="47"/>
+      <c r="B18" s="31">
         <v>41992</v>
       </c>
       <c r="C18" s="15">
@@ -2143,8 +2143,8 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="45"/>
-      <c r="B19" s="32">
+      <c r="A19" s="47"/>
+      <c r="B19" s="31">
         <v>42004</v>
       </c>
       <c r="C19" s="15">
@@ -2192,7 +2192,7 @@
     <col min="9" max="9" width="9.625" style="9" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="9" customWidth="1"/>
     <col min="11" max="11" width="12.375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="36" style="27" customWidth="1"/>
+    <col min="12" max="12" width="36" style="26" customWidth="1"/>
     <col min="13" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
@@ -2203,7 +2203,7 @@
       <c r="B1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="16" t="s">
@@ -2215,8 +2215,8 @@
       <c r="F1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="31" t="s">
-        <v>77</v>
+      <c r="G1" s="30" t="s">
+        <v>76</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>46</v>
@@ -2224,8 +2224,8 @@
       <c r="I1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="31" t="s">
-        <v>78</v>
+      <c r="J1" s="30" t="s">
+        <v>77</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>47</v>
@@ -2257,7 +2257,7 @@
       <c r="B3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="31">
         <v>41981</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -2271,27 +2271,27 @@
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="13"/>
-      <c r="L3" s="28"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="36">
+      <c r="C4" s="35">
         <v>41985</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>10.37</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>1000</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <f>E3*H4*F4</f>
         <v>449.46000000000004</v>
       </c>
@@ -2302,14 +2302,14 @@
         <f>H4/5</f>
         <v>9.0800000000000013E-3</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="23">
         <f>G4</f>
         <v>449.46000000000004</v>
       </c>
       <c r="K4" s="7">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="L4" s="28"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="13" t="s">
@@ -2318,7 +2318,7 @@
       <c r="B5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <v>42003</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -2332,27 +2332,27 @@
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
       <c r="K5" s="13"/>
-      <c r="L5" s="28"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>42011</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>7.14</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <v>1600</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <f>E5*F6*H6</f>
         <v>25.027200000000001</v>
       </c>
@@ -2363,14 +2363,14 @@
         <f>H6/9</f>
         <v>2.4444444444444448E-4</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="23">
         <f>G6</f>
         <v>25.027200000000001</v>
       </c>
       <c r="K6" s="7">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="L6" s="28"/>
+      <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="13" t="s">
@@ -2379,7 +2379,7 @@
       <c r="B7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <v>41992</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -2393,27 +2393,27 @@
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="28"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="27"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="36">
+      <c r="C8" s="35">
         <v>42003</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <v>13.9</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>800</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <f>E7*F8*H8</f>
         <v>1081.7280000000001</v>
       </c>
@@ -2424,14 +2424,14 @@
         <f>H8/12</f>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="23">
         <f>G8</f>
         <v>1081.7280000000001</v>
       </c>
       <c r="K8" s="7">
         <v>0.108</v>
       </c>
-      <c r="L8" s="28"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="13" t="s">
@@ -2440,7 +2440,7 @@
       <c r="B9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>41985</v>
       </c>
       <c r="D9" s="13" t="s">
@@ -2454,27 +2454,27 @@
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="13"/>
-      <c r="L9" s="28"/>
+      <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>41992</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="25">
         <v>3.47</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <v>3000</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="25">
         <f>E9*F10*H10</f>
         <v>-20.82</v>
       </c>
@@ -2492,7 +2492,7 @@
       <c r="K10" s="5">
         <v>-2E-3</v>
       </c>
-      <c r="L10" s="28"/>
+      <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="13" t="s">
@@ -2501,7 +2501,7 @@
       <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="31">
         <v>42011</v>
       </c>
       <c r="D11" s="11" t="s">
@@ -2515,24 +2515,24 @@
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="13"/>
-      <c r="L11" s="28"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="38"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="11"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
       <c r="K12" s="13"/>
-      <c r="L12" s="28"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="53" t="s">
@@ -2557,7 +2557,7 @@
       <c r="B14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="31">
         <v>40695</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -2571,77 +2571,77 @@
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
       <c r="K14" s="13"/>
-      <c r="L14" s="28"/>
+      <c r="L14" s="27"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="36">
+      <c r="C15" s="35">
         <v>41954</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="24">
+      <c r="D15" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="23">
         <v>27.55</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>780</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="23">
         <f>E14*F15*H15</f>
         <v>8743.2072000000007</v>
       </c>
       <c r="H15" s="7">
         <v>0.68600000000000005</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <f>H15/1258</f>
         <v>5.4531001589825127E-4</v>
       </c>
-      <c r="J15" s="23"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="13"/>
-      <c r="L15" s="28" t="s">
+      <c r="L15" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="39">
+      <c r="C16" s="38">
         <v>41970</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>30.2</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="20">
         <v>300</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="23">
         <f>E14*F16*H16</f>
         <v>4156.8959999999997</v>
       </c>
       <c r="H16" s="7">
         <v>0.84799999999999998</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <f>H16/1273</f>
         <v>6.6614296936370779E-4</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="24">
         <f>G15+G16</f>
         <v>12900.103200000001</v>
       </c>
       <c r="K16" s="7">
         <v>0.72070000000000001</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="27" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2654,10 +2654,10 @@
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
       <c r="K17" s="13"/>
-      <c r="L17" s="28"/>
+      <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="13" t="s">
@@ -2666,7 +2666,7 @@
       <c r="B18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="31">
         <v>40524</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -2680,15 +2680,15 @@
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="13"/>
-      <c r="L18" s="28"/>
+      <c r="L18" s="27"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="32">
+      <c r="C19" s="31">
         <v>41858</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -2702,15 +2702,15 @@
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="13"/>
-      <c r="L19" s="28"/>
+      <c r="L19" s="27"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="32">
+      <c r="C20" s="31">
         <v>41862</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -2724,15 +2724,15 @@
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
       <c r="K20" s="13"/>
-      <c r="L20" s="28"/>
+      <c r="L20" s="27"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="32">
+      <c r="C21" s="31">
         <v>41893</v>
       </c>
       <c r="D21" s="13" t="s">
@@ -2746,15 +2746,15 @@
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
       <c r="K21" s="13"/>
-      <c r="L21" s="28"/>
+      <c r="L21" s="27"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="32">
+      <c r="C22" s="31">
         <v>41976</v>
       </c>
       <c r="D22" s="13" t="s">
@@ -2768,15 +2768,15 @@
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
       <c r="K22" s="13"/>
-      <c r="L22" s="28"/>
+      <c r="L22" s="27"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="32">
+      <c r="C23" s="31">
         <v>41988</v>
       </c>
       <c r="D23" s="13" t="s">
@@ -2790,15 +2790,15 @@
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
       <c r="K23" s="13"/>
-      <c r="L23" s="28"/>
+      <c r="L23" s="27"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="32">
+      <c r="C24" s="31">
         <v>41988</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -2812,31 +2812,31 @@
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
       <c r="K24" s="13"/>
-      <c r="L24" s="28"/>
-    </row>
-    <row r="25" spans="1:12" s="35" customFormat="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="37">
+      <c r="L24" s="27"/>
+    </row>
+    <row r="25" spans="1:12" s="34" customFormat="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="36">
         <v>41995</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>68</v>
+      <c r="D25" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="E25" s="3">
         <v>10.4</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="32">
         <v>1820</v>
       </c>
       <c r="G25" s="3">
         <f>E18*F25*H25</f>
         <v>-16887.998399999997</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="33">
         <v>-0.47149999999999997</v>
       </c>
       <c r="I25" s="5">
@@ -2844,7 +2844,7 @@
         <v>-3.22282980177717E-4</v>
       </c>
       <c r="J25" s="5"/>
-      <c r="K25" s="33"/>
+      <c r="K25" s="32"/>
       <c r="L25" s="48" t="s">
         <v>51</v>
       </c>
@@ -2852,100 +2852,100 @@
     <row r="26" spans="1:12">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
-      <c r="C26" s="36">
+      <c r="C26" s="35">
         <v>41995</v>
       </c>
-      <c r="D26" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="24">
+      <c r="D26" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="23">
         <v>10.4</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="20">
         <v>300</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="24">
         <f>E19*F26*H26</f>
         <v>396.00000000000006</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="29">
         <f>(E26-E19)/E19</f>
         <v>0.14537444933920707</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="22">
         <f>H26/138</f>
         <v>1.0534380386899064E-3</v>
       </c>
-      <c r="J26" s="23"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="13"/>
       <c r="L26" s="49"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="39">
+      <c r="C27" s="38">
         <v>41995</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="24">
+      <c r="D27" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="23">
         <v>10.4</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="20">
         <v>200</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="24">
         <f>E20*F27*H27</f>
         <v>244.00000000000011</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="29">
         <f>(E27-E20)/E20</f>
         <v>0.13289760348583884</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="22">
         <f>H27/134</f>
         <v>9.9177316034208102E-4</v>
       </c>
-      <c r="J27" s="23"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="13"/>
       <c r="L27" s="49"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="39">
+      <c r="C28" s="38">
         <v>41995</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="24">
+      <c r="D28" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="23">
         <v>10.4</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="20">
         <v>300</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="24">
         <f>E21*F28*H28</f>
         <v>540.00000000000023</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="29">
         <f>(E28-E21)/E21</f>
         <v>0.20930232558139544</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="22">
         <f>H28/103</f>
         <v>2.0320614134116061E-3</v>
       </c>
-      <c r="J28" s="23"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="13"/>
       <c r="L28" s="50"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="32">
+      <c r="C29" s="31">
         <v>42039</v>
       </c>
       <c r="D29" s="13" t="s">
@@ -2958,18 +2958,18 @@
         <v>2000</v>
       </c>
       <c r="G29" s="13"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
       <c r="K29" s="13"/>
-      <c r="L29" s="28" t="s">
+      <c r="L29" s="27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
-      <c r="C30" s="32">
+      <c r="C30" s="31">
         <v>42051</v>
       </c>
       <c r="D30" s="13" t="s">
@@ -2982,11 +2982,11 @@
         <v>2000</v>
       </c>
       <c r="G30" s="13"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
       <c r="K30" s="13"/>
-      <c r="L30" s="28" t="s">
+      <c r="L30" s="27" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2999,10 +2999,10 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
       <c r="K31" s="13"/>
-      <c r="L31" s="28"/>
+      <c r="L31" s="27"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="13" t="s">
@@ -3011,7 +3011,7 @@
       <c r="B32" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="31">
         <v>41971</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -3025,17 +3025,17 @@
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
       <c r="K32" s="13"/>
-      <c r="L32" s="28" t="s">
+      <c r="L32" s="27" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="32">
+      <c r="C33" s="31">
         <v>41995</v>
       </c>
       <c r="D33" s="13" t="s">
@@ -3049,8 +3049,8 @@
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
       <c r="K33" s="13"/>
       <c r="L33" s="51" t="s">
         <v>55</v>
@@ -3059,7 +3059,7 @@
     <row r="34" spans="1:12">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="32">
+      <c r="C34" s="31">
         <v>41997</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -3073,8 +3073,8 @@
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
       <c r="K34" s="13"/>
       <c r="L34" s="50"/>
     </row>
@@ -3087,23 +3087,23 @@
       <c r="F35" s="13"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
       <c r="K35" s="13"/>
-      <c r="L35" s="28"/>
+      <c r="L35" s="27"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="C36" s="31">
+        <v>42052</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="C36" s="32">
-        <v>42052</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="E36" s="13">
         <v>28.07</v>
@@ -3113,39 +3113,39 @@
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
       <c r="K36" s="13"/>
-      <c r="L36" s="28" t="s">
-        <v>86</v>
+      <c r="L36" s="27" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
-      <c r="C37" s="32"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
       <c r="K37" s="13"/>
-      <c r="L37" s="28"/>
+      <c r="L37" s="27"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="32">
+      <c r="C38" s="31">
         <v>42051</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E38" s="13">
         <v>19.239999999999998</v>
@@ -3155,11 +3155,11 @@
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
       <c r="K38" s="13"/>
-      <c r="L38" s="28" t="s">
-        <v>89</v>
+      <c r="L38" s="27" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3171,10 +3171,10 @@
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
       <c r="K39" s="13"/>
-      <c r="L39" s="28"/>
+      <c r="L39" s="27"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="13"/>
@@ -3185,10 +3185,10 @@
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
       <c r="K40" s="13"/>
-      <c r="L40" s="28"/>
+      <c r="L40" s="27"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="13"/>
@@ -3199,10 +3199,10 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
       <c r="K41" s="13"/>
-      <c r="L41" s="28"/>
+      <c r="L41" s="27"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="13"/>
@@ -3216,7 +3216,7 @@
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
-      <c r="L42" s="28"/>
+      <c r="L42" s="27"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="13"/>
@@ -3230,7 +3230,7 @@
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
-      <c r="L43" s="28"/>
+      <c r="L43" s="27"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="13"/>
@@ -3244,7 +3244,7 @@
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
-      <c r="L44" s="28"/>
+      <c r="L44" s="27"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="13"/>
@@ -3258,7 +3258,7 @@
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
-      <c r="L45" s="28"/>
+      <c r="L45" s="27"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="13"/>
@@ -3272,7 +3272,7 @@
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
-      <c r="L46" s="28"/>
+      <c r="L46" s="27"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="13"/>
@@ -3286,7 +3286,7 @@
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
-      <c r="L47" s="28"/>
+      <c r="L47" s="27"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="13"/>
@@ -3300,7 +3300,7 @@
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
-      <c r="L48" s="28"/>
+      <c r="L48" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/investment/record.xlsx
+++ b/investment/record.xlsx
@@ -306,22 +306,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>资产增值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>资产市值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作增值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资增值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交易收益额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,6 +367,18 @@
   </si>
   <si>
     <t>资产收益率（ROA）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资收益</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1075,16 +1075,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>75</v>
+      <c r="E1" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>90</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>2</v>
@@ -1093,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K1" s="30" t="s">
         <v>71</v>
@@ -1198,16 +1198,27 @@
       <c r="D6" s="6">
         <v>31678.66</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="E6" s="6">
+        <f>D6-C6</f>
+        <v>530.32999999999811</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <f>E6-F6</f>
+        <v>530.32999999999811</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="7">
-        <f t="shared" ref="J6:J10" si="0">(D6-C6)/C6</f>
+        <f>E6/C6</f>
         <v>1.7025952916255801E-2</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="7">
+        <f>G6/C6</f>
+        <v>1.7025952916255801E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="45"/>
@@ -1263,16 +1274,27 @@
         <f>D6*N2+D2</f>
         <v>352898.34718599997</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="E10" s="3">
+        <f>D10-C10</f>
+        <v>-2535.6197330000577</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <f>E10-F10</f>
+        <v>-2535.6197330000577</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="5">
-        <f t="shared" si="0"/>
+        <f>E10/C10</f>
         <v>-7.1338700546250862E-3</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="5">
+        <f>G10/C10</f>
+        <v>-7.1338700546250862E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="45"/>
@@ -1995,7 +2017,7 @@
         <v>943462.7</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2017,7 +2039,7 @@
         <v>443462.69999999995</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2039,7 +2061,7 @@
         <v>273462.69999999995</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2061,7 +2083,7 @@
         <v>313462.69999999995</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2083,7 +2105,7 @@
         <v>211462.69999999995</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2216,7 +2238,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>46</v>
@@ -2225,7 +2247,7 @@
         <v>45</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>47</v>
@@ -3094,16 +3116,16 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C36" s="31">
         <v>42052</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E36" s="13">
         <v>28.07</v>
@@ -3117,7 +3139,7 @@
       <c r="J36" s="17"/>
       <c r="K36" s="13"/>
       <c r="L36" s="27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3136,16 +3158,16 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C38" s="31">
         <v>42051</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E38" s="13">
         <v>19.239999999999998</v>
@@ -3159,7 +3181,7 @@
       <c r="J38" s="17"/>
       <c r="K38" s="13"/>
       <c r="L38" s="27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:12">

--- a/investment/record.xlsx
+++ b/investment/record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="损益" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,15 +718,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -744,6 +744,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1106,7 +1115,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="36">
@@ -1147,7 +1156,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1160,7 +1169,7 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1173,7 +1182,7 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1186,7 +1195,7 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="35">
@@ -1221,7 +1230,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1234,7 +1243,7 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1247,7 +1256,7 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1260,7 +1269,7 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="46" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="36">
@@ -1297,7 +1306,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1310,7 +1319,7 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1323,7 +1332,7 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1336,7 +1345,7 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="45" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="31">
@@ -1355,7 +1364,7 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1">
-      <c r="A15" s="47"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="31"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1368,7 +1377,7 @@
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1">
-      <c r="A16" s="47"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="31"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -1381,7 +1390,7 @@
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1">
-      <c r="A17" s="47"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="31"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1394,7 +1403,7 @@
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="45" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="31">
@@ -1413,7 +1422,7 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1">
-      <c r="A19" s="47"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="31"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -1426,7 +1435,7 @@
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1">
-      <c r="A20" s="47"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="31"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1439,7 +1448,7 @@
       <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1">
-      <c r="A21" s="47"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="31"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -1452,7 +1461,7 @@
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="45" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="31">
@@ -1471,7 +1480,7 @@
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1">
-      <c r="A23" s="47"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="31"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -1484,7 +1493,7 @@
       <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1">
-      <c r="A24" s="47"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="31"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1497,7 +1506,7 @@
       <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1">
-      <c r="A25" s="47"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="31"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -1510,7 +1519,7 @@
       <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="45" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="31">
@@ -1529,7 +1538,7 @@
       <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1">
-      <c r="A27" s="47"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="31"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -1542,7 +1551,7 @@
       <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1">
-      <c r="A28" s="47"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="31"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -1555,7 +1564,7 @@
       <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1">
-      <c r="A29" s="47"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="31"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -1568,7 +1577,7 @@
       <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="45" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="31">
@@ -1587,7 +1596,7 @@
       <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1">
-      <c r="A31" s="47"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="31"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -1600,7 +1609,7 @@
       <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1">
-      <c r="A32" s="47"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="31"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -1613,7 +1622,7 @@
       <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1">
-      <c r="A33" s="47"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="31"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -1626,7 +1635,7 @@
       <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="45" t="s">
         <v>65</v>
       </c>
       <c r="B34" s="40">
@@ -1645,7 +1654,7 @@
       <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="47"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="41"/>
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
@@ -1658,7 +1667,7 @@
       <c r="K35" s="39"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="47"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="41"/>
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
@@ -1671,7 +1680,7 @@
       <c r="K36" s="39"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="47"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
@@ -1684,7 +1693,7 @@
       <c r="K37" s="39"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="46" t="s">
         <v>68</v>
       </c>
       <c r="B38" s="31">
@@ -1703,7 +1712,7 @@
       <c r="K38" s="39"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="45"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
       <c r="D39" s="39"/>
@@ -1716,7 +1725,7 @@
       <c r="K39" s="39"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="45"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
@@ -1729,7 +1738,7 @@
       <c r="K40" s="39"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="45"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
@@ -1743,16 +1752,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A30:A33"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1764,8 +1773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1803,7 +1812,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="31">
@@ -1825,7 +1834,7 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="47"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="31">
         <v>42045</v>
       </c>
@@ -1845,7 +1854,7 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="47"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="31">
         <v>42051</v>
       </c>
@@ -1867,7 +1876,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="47"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="31">
         <v>42063</v>
       </c>
@@ -1889,7 +1898,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="47"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="31">
         <v>42068</v>
       </c>
@@ -1911,7 +1920,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="47"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="31">
         <v>42074</v>
       </c>
@@ -1933,7 +1942,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="47"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="31">
         <v>42074</v>
       </c>
@@ -1955,7 +1964,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="47"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="31">
         <v>42075</v>
       </c>
@@ -1977,7 +1986,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="47"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="31">
         <v>42076</v>
       </c>
@@ -1999,7 +2008,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="47"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="31">
         <v>42079</v>
       </c>
@@ -2021,7 +2030,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="47"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="31">
         <v>42080</v>
       </c>
@@ -2043,7 +2052,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="47"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="31">
         <v>42081</v>
       </c>
@@ -2065,7 +2074,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="47"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="31">
         <v>42081</v>
       </c>
@@ -2087,29 +2096,29 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="47"/>
-      <c r="B15" s="31">
+      <c r="A15" s="45"/>
+      <c r="B15" s="54">
         <v>42086</v>
       </c>
-      <c r="C15" s="12">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="C15" s="55">
+        <v>0</v>
+      </c>
+      <c r="D15" s="55">
         <v>102000</v>
       </c>
-      <c r="E15" s="12">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12">
+      <c r="E15" s="55">
+        <v>0</v>
+      </c>
+      <c r="F15" s="55">
         <f t="shared" si="0"/>
         <v>211462.69999999995</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="56" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="47"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="31"/>
       <c r="C16" s="12">
         <v>0</v>
@@ -2124,7 +2133,7 @@
       <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="45" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="31">
@@ -2145,7 +2154,7 @@
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="47"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="31">
         <v>41992</v>
       </c>
@@ -2165,7 +2174,7 @@
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="47"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="31">
         <v>42004</v>
       </c>
@@ -2199,7 +2208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>

--- a/investment/record.xlsx
+++ b/investment/record.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,10 @@
   </si>
   <si>
     <t>投资收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向老妈融资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -718,15 +722,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -745,13 +758,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1115,7 +1128,7 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="36">
@@ -1156,7 +1169,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="46"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1169,7 +1182,7 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="46"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1182,7 +1195,7 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="46"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1195,7 +1208,7 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="35">
@@ -1230,7 +1243,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="46"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1243,7 +1256,7 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="46"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1256,7 +1269,7 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="46"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1269,7 +1282,7 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="36">
@@ -1306,7 +1319,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="46"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1319,7 +1332,7 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="46"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1332,7 +1345,7 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="47"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1345,7 +1358,7 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="50" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="31">
@@ -1364,7 +1377,7 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="31"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1377,7 +1390,7 @@
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1">
-      <c r="A16" s="45"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="31"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -1390,7 +1403,7 @@
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1">
-      <c r="A17" s="45"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="31"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1403,7 +1416,7 @@
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="50" t="s">
         <v>61</v>
       </c>
       <c r="B18" s="31">
@@ -1422,7 +1435,7 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1">
-      <c r="A19" s="45"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="31"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -1435,7 +1448,7 @@
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1">
-      <c r="A20" s="45"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="31"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -1448,7 +1461,7 @@
       <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" s="1" customFormat="1">
-      <c r="A21" s="45"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="31"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -1461,7 +1474,7 @@
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="50" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="31">
@@ -1480,7 +1493,7 @@
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1">
-      <c r="A23" s="45"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="31"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -1493,7 +1506,7 @@
       <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1">
-      <c r="A24" s="45"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="31"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1506,7 +1519,7 @@
       <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11" s="1" customFormat="1">
-      <c r="A25" s="45"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="31"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -1519,7 +1532,7 @@
       <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="50" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="31">
@@ -1538,7 +1551,7 @@
       <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11" s="1" customFormat="1">
-      <c r="A27" s="45"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="31"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -1551,7 +1564,7 @@
       <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11" s="1" customFormat="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="31"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -1564,7 +1577,7 @@
       <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1">
-      <c r="A29" s="45"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="31"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -1577,7 +1590,7 @@
       <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="50" t="s">
         <v>64</v>
       </c>
       <c r="B30" s="31">
@@ -1596,7 +1609,7 @@
       <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1">
-      <c r="A31" s="45"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="31"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -1609,7 +1622,7 @@
       <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="31"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -1622,7 +1635,7 @@
       <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11" s="1" customFormat="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="31"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -1635,7 +1648,7 @@
       <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11" s="1" customFormat="1">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="50" t="s">
         <v>65</v>
       </c>
       <c r="B34" s="40">
@@ -1654,7 +1667,7 @@
       <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="45"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="41"/>
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
@@ -1667,7 +1680,7 @@
       <c r="K35" s="39"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="45"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="41"/>
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
@@ -1680,7 +1693,7 @@
       <c r="K36" s="39"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="45"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
@@ -1693,7 +1706,7 @@
       <c r="K37" s="39"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="48" t="s">
         <v>68</v>
       </c>
       <c r="B38" s="31">
@@ -1712,7 +1725,7 @@
       <c r="K38" s="39"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="46"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
       <c r="D39" s="39"/>
@@ -1725,7 +1738,7 @@
       <c r="K39" s="39"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="46"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
@@ -1738,7 +1751,7 @@
       <c r="K40" s="39"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="46"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
@@ -1752,16 +1765,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1771,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1812,7 +1825,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="50" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="31">
@@ -1834,7 +1847,7 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="45"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="31">
         <v>42045</v>
       </c>
@@ -1848,13 +1861,13 @@
         <v>403.09</v>
       </c>
       <c r="F3" s="12">
-        <f t="shared" ref="F3:F15" si="0">F2+C3-D3+E3</f>
+        <f t="shared" ref="F3:F16" si="0">F2+C3-D3+E3</f>
         <v>160403.09</v>
       </c>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="45"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="31">
         <v>42051</v>
       </c>
@@ -1876,7 +1889,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="45"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="31">
         <v>42063</v>
       </c>
@@ -1898,7 +1911,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="45"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="31">
         <v>42068</v>
       </c>
@@ -1920,7 +1933,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="45"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="31">
         <v>42074</v>
       </c>
@@ -1942,7 +1955,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="45"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="31">
         <v>42074</v>
       </c>
@@ -1964,7 +1977,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="45"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="31">
         <v>42075</v>
       </c>
@@ -1986,7 +1999,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="45"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="31">
         <v>42076</v>
       </c>
@@ -2008,7 +2021,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="45"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="31">
         <v>42079</v>
       </c>
@@ -2030,7 +2043,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="45"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="31">
         <v>42080</v>
       </c>
@@ -2052,7 +2065,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="45"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="31">
         <v>42081</v>
       </c>
@@ -2074,7 +2087,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="45"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="31">
         <v>42081</v>
       </c>
@@ -2096,90 +2109,92 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="45"/>
-      <c r="B15" s="54">
+      <c r="A15" s="50"/>
+      <c r="B15" s="45">
         <v>42086</v>
       </c>
-      <c r="C15" s="55">
-        <v>0</v>
-      </c>
-      <c r="D15" s="55">
+      <c r="C15" s="46">
+        <v>0</v>
+      </c>
+      <c r="D15" s="46">
         <v>102000</v>
       </c>
-      <c r="E15" s="55">
-        <v>0</v>
-      </c>
-      <c r="F15" s="55">
+      <c r="E15" s="46">
+        <v>0</v>
+      </c>
+      <c r="F15" s="46">
         <f t="shared" si="0"/>
         <v>211462.69999999995</v>
       </c>
-      <c r="G15" s="56" t="s">
+      <c r="G15" s="47" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="45"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="12">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="57">
+        <v>42095</v>
+      </c>
+      <c r="C16" s="58">
+        <v>50000</v>
+      </c>
+      <c r="D16" s="58">
+        <v>0</v>
+      </c>
+      <c r="E16" s="58">
+        <v>0</v>
+      </c>
+      <c r="F16" s="58">
+        <f t="shared" si="0"/>
+        <v>261462.69999999995</v>
+      </c>
+      <c r="G16" s="59" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="50"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B18" s="31">
         <v>41639</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C18" s="15">
         <v>13684</v>
       </c>
-      <c r="D17" s="15">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15">
+      <c r="D18" s="15">
+        <v>0</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
         <v>13684</v>
       </c>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="45"/>
-      <c r="B18" s="31">
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="50"/>
+      <c r="B19" s="31">
         <v>41992</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C19" s="15">
         <v>3071.25</v>
-      </c>
-      <c r="D18" s="15">
-        <v>0</v>
-      </c>
-      <c r="E18" s="15">
-        <v>0</v>
-      </c>
-      <c r="F18" s="15">
-        <f>F17+C18-D18+E18</f>
-        <v>16755.25</v>
-      </c>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="45"/>
-      <c r="B19" s="31">
-        <v>42004</v>
-      </c>
-      <c r="C19" s="15">
-        <v>14393.08</v>
       </c>
       <c r="D19" s="15">
         <v>0</v>
@@ -2189,14 +2204,34 @@
       </c>
       <c r="F19" s="15">
         <f>F18+C19-D19+E19</f>
+        <v>16755.25</v>
+      </c>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="50"/>
+      <c r="B20" s="31">
+        <v>42004</v>
+      </c>
+      <c r="C20" s="15">
+        <v>14393.08</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15">
+        <f>F19+C20-D20+E20</f>
         <v>31148.33</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="G20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2266,20 +2301,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="13" t="s">
@@ -2566,20 +2601,20 @@
       <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="13" t="s">
@@ -2876,7 +2911,7 @@
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="32"/>
-      <c r="L25" s="48" t="s">
+      <c r="L25" s="51" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2909,7 +2944,7 @@
       </c>
       <c r="J26" s="22"/>
       <c r="K26" s="13"/>
-      <c r="L26" s="49"/>
+      <c r="L26" s="52"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="13"/>
@@ -2940,7 +2975,7 @@
       </c>
       <c r="J27" s="22"/>
       <c r="K27" s="13"/>
-      <c r="L27" s="49"/>
+      <c r="L27" s="52"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="13"/>
@@ -2971,7 +3006,7 @@
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="13"/>
-      <c r="L28" s="50"/>
+      <c r="L28" s="53"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="13"/>
@@ -3083,7 +3118,7 @@
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
       <c r="K33" s="13"/>
-      <c r="L33" s="51" t="s">
+      <c r="L33" s="54" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3107,7 +3142,7 @@
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="13"/>
-      <c r="L34" s="50"/>
+      <c r="L34" s="53"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="13"/>
